--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -451,7 +451,7 @@
     <t xml:space="preserve">ಈದ್ ಅಲ್-ಫಿತರ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸಿಂಹಾಸನದ ಹಬ್ಬ</t>
+    <t xml:space="preserve">ಸಿಂಹಾಸನದ ಹಬ್ಬ</t>
   </si>
   <si>
     <t xml:space="preserve">ಈದ್ ಅಲ್-ಅಧಾ</t>
@@ -690,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:G796"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E402" activeCellId="0" sqref="E402"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A395" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E411" activeCellId="0" sqref="E411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -690,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:G796"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A395" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E411" activeCellId="0" sqref="E411"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A330" activeCellId="0" sqref="330:330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="188">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -688,10 +688,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G796"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A330" activeCellId="0" sqref="330:330"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C794" activeCellId="0" sqref="C794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10306,7 +10306,8 @@
         <v>129</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>2000011</v>
+        <f aca="false">B400+1</f>
+        <v>2000400</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>19</v>
@@ -10329,7 +10330,8 @@
         <v>129</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>2000014</v>
+        <f aca="false">B401+1</f>
+        <v>2000401</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>8</v>
@@ -10352,7 +10354,8 @@
         <v>129</v>
       </c>
       <c r="B403" s="0" t="n">
-        <v>2000017</v>
+        <f aca="false">B402+1</f>
+        <v>2000402</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>19</v>
@@ -10375,7 +10378,8 @@
         <v>129</v>
       </c>
       <c r="B404" s="0" t="n">
-        <v>2000020</v>
+        <f aca="false">B403+1</f>
+        <v>2000403</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>8</v>
@@ -10398,7 +10402,8 @@
         <v>129</v>
       </c>
       <c r="B405" s="0" t="n">
-        <v>2000023</v>
+        <f aca="false">B404+1</f>
+        <v>2000404</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>19</v>
@@ -10421,7 +10426,8 @@
         <v>129</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>2000026</v>
+        <f aca="false">B405+1</f>
+        <v>2000405</v>
       </c>
       <c r="C406" s="0" t="s">
         <v>8</v>
@@ -10444,7 +10450,8 @@
         <v>129</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>2000029</v>
+        <f aca="false">B406+1</f>
+        <v>2000406</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>19</v>
@@ -10467,7 +10474,8 @@
         <v>129</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>2000032</v>
+        <f aca="false">B407+1</f>
+        <v>2000407</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>8</v>
@@ -10490,7 +10498,8 @@
         <v>129</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>2000035</v>
+        <f aca="false">B408+1</f>
+        <v>2000408</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>19</v>
@@ -10513,7 +10522,8 @@
         <v>129</v>
       </c>
       <c r="B410" s="0" t="n">
-        <v>2000038</v>
+        <f aca="false">B409+1</f>
+        <v>2000409</v>
       </c>
       <c r="C410" s="0" t="s">
         <v>8</v>
@@ -10536,7 +10546,8 @@
         <v>129</v>
       </c>
       <c r="B411" s="0" t="n">
-        <v>2000041</v>
+        <f aca="false">B410+1</f>
+        <v>2000410</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>19</v>
@@ -10559,7 +10570,8 @@
         <v>129</v>
       </c>
       <c r="B412" s="0" t="n">
-        <v>2000044</v>
+        <f aca="false">B411+1</f>
+        <v>2000411</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>8</v>
@@ -10582,7 +10594,8 @@
         <v>129</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>2000047</v>
+        <f aca="false">B412+1</f>
+        <v>2000412</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>19</v>
@@ -10605,7 +10618,8 @@
         <v>129</v>
       </c>
       <c r="B414" s="0" t="n">
-        <v>2000050</v>
+        <f aca="false">B413+1</f>
+        <v>2000413</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>8</v>
@@ -10628,7 +10642,8 @@
         <v>129</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>2000053</v>
+        <f aca="false">B414+1</f>
+        <v>2000414</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>19</v>
@@ -10651,7 +10666,8 @@
         <v>129</v>
       </c>
       <c r="B416" s="0" t="n">
-        <v>2000056</v>
+        <f aca="false">B415+1</f>
+        <v>2000415</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>8</v>
@@ -10674,7 +10690,8 @@
         <v>129</v>
       </c>
       <c r="B417" s="0" t="n">
-        <v>2000059</v>
+        <f aca="false">B416+1</f>
+        <v>2000416</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>19</v>
@@ -10697,7 +10714,8 @@
         <v>129</v>
       </c>
       <c r="B418" s="0" t="n">
-        <v>2000062</v>
+        <f aca="false">B417+1</f>
+        <v>2000417</v>
       </c>
       <c r="C418" s="0" t="s">
         <v>8</v>
@@ -10720,7 +10738,8 @@
         <v>129</v>
       </c>
       <c r="B419" s="0" t="n">
-        <v>2000065</v>
+        <f aca="false">B418+1</f>
+        <v>2000418</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>19</v>
@@ -10743,7 +10762,8 @@
         <v>129</v>
       </c>
       <c r="B420" s="0" t="n">
-        <v>2000068</v>
+        <f aca="false">B419+1</f>
+        <v>2000419</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>8</v>
@@ -10767,7 +10787,7 @@
       </c>
       <c r="B421" s="0" t="n">
         <f aca="false">B420+1</f>
-        <v>2000069</v>
+        <v>2000420</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>19</v>
@@ -10791,16 +10811,16 @@
       </c>
       <c r="B422" s="0" t="n">
         <f aca="false">B421+1</f>
-        <v>2000070</v>
+        <v>2000421</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D422" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E422" s="0" t="s">
-        <v>133</v>
+        <v>45</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>134</v>
@@ -10815,10 +10835,10 @@
       </c>
       <c r="B423" s="0" t="n">
         <f aca="false">B422+1</f>
-        <v>2000071</v>
+        <v>2000422</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D423" s="0" t="s">
         <v>45</v>
@@ -10839,19 +10859,19 @@
       </c>
       <c r="B424" s="0" t="n">
         <f aca="false">B423+1</f>
-        <v>2000072</v>
+        <v>2000423</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E424" s="1" t="s">
-        <v>136</v>
+        <v>46</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -10863,10 +10883,10 @@
       </c>
       <c r="B425" s="0" t="n">
         <f aca="false">B424+1</f>
-        <v>2000073</v>
+        <v>2000424</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>46</v>
@@ -10887,19 +10907,19 @@
       </c>
       <c r="B426" s="0" t="n">
         <f aca="false">B425+1</f>
-        <v>2000074</v>
+        <v>2000425</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G426" s="0" t="s">
         <v>12</v>
@@ -10911,10 +10931,10 @@
       </c>
       <c r="B427" s="0" t="n">
         <f aca="false">B426+1</f>
-        <v>2000075</v>
+        <v>2000426</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>50</v>
@@ -10935,13 +10955,13 @@
       </c>
       <c r="B428" s="0" t="n">
         <f aca="false">B427+1</f>
-        <v>2000076</v>
+        <v>2000427</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E428" s="0" t="s">
         <v>133</v>
@@ -10959,10 +10979,10 @@
       </c>
       <c r="B429" s="0" t="n">
         <f aca="false">B428+1</f>
-        <v>2000077</v>
+        <v>2000428</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D429" s="0" t="s">
         <v>51</v>
@@ -10983,16 +11003,16 @@
       </c>
       <c r="B430" s="0" t="n">
         <f aca="false">B429+1</f>
-        <v>2000078</v>
+        <v>2000429</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E430" s="0" t="s">
-        <v>133</v>
+        <v>52</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>134</v>
@@ -11007,10 +11027,10 @@
       </c>
       <c r="B431" s="0" t="n">
         <f aca="false">B430+1</f>
-        <v>2000079</v>
+        <v>2000430</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>52</v>
@@ -11031,13 +11051,13 @@
       </c>
       <c r="B432" s="0" t="n">
         <f aca="false">B431+1</f>
-        <v>2000080</v>
+        <v>2000431</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>136</v>
@@ -11055,10 +11075,10 @@
       </c>
       <c r="B433" s="0" t="n">
         <f aca="false">B432+1</f>
-        <v>2000081</v>
+        <v>2000432</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>53</v>
@@ -11079,16 +11099,16 @@
       </c>
       <c r="B434" s="0" t="n">
         <f aca="false">B433+1</f>
-        <v>2000082</v>
+        <v>2000433</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>134</v>
@@ -11103,10 +11123,10 @@
       </c>
       <c r="B435" s="0" t="n">
         <f aca="false">B434+1</f>
-        <v>2000083</v>
+        <v>2000434</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D435" s="0" t="s">
         <v>54</v>
@@ -11127,19 +11147,19 @@
       </c>
       <c r="B436" s="0" t="n">
         <f aca="false">B435+1</f>
-        <v>2000084</v>
+        <v>2000435</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G436" s="0" t="s">
         <v>12</v>
@@ -11151,19 +11171,19 @@
       </c>
       <c r="B437" s="0" t="n">
         <f aca="false">B436+1</f>
-        <v>2000085</v>
+        <v>2000436</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G437" s="0" t="s">
         <v>12</v>
@@ -11175,10 +11195,10 @@
       </c>
       <c r="B438" s="0" t="n">
         <f aca="false">B437+1</f>
-        <v>2000086</v>
+        <v>2000437</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>59</v>
@@ -11199,16 +11219,16 @@
       </c>
       <c r="B439" s="0" t="n">
         <f aca="false">B438+1</f>
-        <v>2000087</v>
+        <v>2000438</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D439" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E439" s="0" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>134</v>
@@ -11223,10 +11243,10 @@
       </c>
       <c r="B440" s="0" t="n">
         <f aca="false">B439+1</f>
-        <v>2000088</v>
+        <v>2000439</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>60</v>
@@ -11247,16 +11267,16 @@
       </c>
       <c r="B441" s="0" t="n">
         <f aca="false">B440+1</f>
-        <v>2000089</v>
+        <v>2000440</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>136</v>
+        <v>61</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>134</v>
@@ -11271,10 +11291,10 @@
       </c>
       <c r="B442" s="0" t="n">
         <f aca="false">B441+1</f>
-        <v>2000090</v>
+        <v>2000441</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>61</v>
@@ -11295,16 +11315,16 @@
       </c>
       <c r="B443" s="0" t="n">
         <f aca="false">B442+1</f>
-        <v>2000091</v>
+        <v>2000442</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E443" s="0" t="s">
-        <v>133</v>
+        <v>62</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>134</v>
@@ -11319,10 +11339,10 @@
       </c>
       <c r="B444" s="0" t="n">
         <f aca="false">B443+1</f>
-        <v>2000092</v>
+        <v>2000443</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>62</v>
@@ -11343,16 +11363,16 @@
       </c>
       <c r="B445" s="0" t="n">
         <f aca="false">B444+1</f>
-        <v>2000093</v>
+        <v>2000444</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E445" s="1" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="E445" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F445" s="1" t="s">
         <v>134</v>
@@ -11367,10 +11387,10 @@
       </c>
       <c r="B446" s="0" t="n">
         <f aca="false">B445+1</f>
-        <v>2000094</v>
+        <v>2000445</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D446" s="0" t="s">
         <v>63</v>
@@ -11391,16 +11411,16 @@
       </c>
       <c r="B447" s="0" t="n">
         <f aca="false">B446+1</f>
-        <v>2000095</v>
+        <v>2000446</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D447" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E447" s="0" t="s">
-        <v>133</v>
+        <v>64</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>134</v>
@@ -11415,10 +11435,10 @@
       </c>
       <c r="B448" s="0" t="n">
         <f aca="false">B447+1</f>
-        <v>2000096</v>
+        <v>2000447</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D448" s="0" t="s">
         <v>64</v>
@@ -11439,16 +11459,16 @@
       </c>
       <c r="B449" s="0" t="n">
         <f aca="false">B448+1</f>
-        <v>2000097</v>
+        <v>2000448</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D449" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>136</v>
+        <v>65</v>
+      </c>
+      <c r="E449" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>134</v>
@@ -11463,10 +11483,10 @@
       </c>
       <c r="B450" s="0" t="n">
         <f aca="false">B449+1</f>
-        <v>2000098</v>
+        <v>2000449</v>
       </c>
       <c r="C450" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D450" s="0" t="s">
         <v>65</v>
@@ -11487,16 +11507,16 @@
       </c>
       <c r="B451" s="0" t="n">
         <f aca="false">B450+1</f>
-        <v>2000099</v>
+        <v>2000450</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E451" s="0" t="s">
-        <v>133</v>
+        <v>66</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>134</v>
@@ -11511,10 +11531,10 @@
       </c>
       <c r="B452" s="0" t="n">
         <f aca="false">B451+1</f>
-        <v>2000100</v>
+        <v>2000451</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D452" s="0" t="s">
         <v>66</v>
@@ -11535,16 +11555,16 @@
       </c>
       <c r="B453" s="0" t="n">
         <f aca="false">B452+1</f>
-        <v>2000101</v>
+        <v>2000452</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D453" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>136</v>
+        <v>67</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>134</v>
@@ -11559,10 +11579,10 @@
       </c>
       <c r="B454" s="0" t="n">
         <f aca="false">B453+1</f>
-        <v>2000102</v>
+        <v>2000453</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D454" s="0" t="s">
         <v>67</v>
@@ -11583,16 +11603,16 @@
       </c>
       <c r="B455" s="0" t="n">
         <f aca="false">B454+1</f>
-        <v>2000103</v>
+        <v>2000454</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E455" s="0" t="s">
-        <v>133</v>
+        <v>68</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>134</v>
@@ -11607,10 +11627,10 @@
       </c>
       <c r="B456" s="0" t="n">
         <f aca="false">B455+1</f>
-        <v>2000104</v>
+        <v>2000455</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D456" s="0" t="s">
         <v>68</v>
@@ -11631,19 +11651,19 @@
       </c>
       <c r="B457" s="0" t="n">
         <f aca="false">B456+1</f>
-        <v>2000105</v>
+        <v>2000456</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>136</v>
+        <v>69</v>
+      </c>
+      <c r="E457" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G457" s="0" t="s">
         <v>12</v>
@@ -11655,10 +11675,10 @@
       </c>
       <c r="B458" s="0" t="n">
         <f aca="false">B457+1</f>
-        <v>2000106</v>
+        <v>2000457</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D458" s="0" t="s">
         <v>69</v>
@@ -11679,19 +11699,19 @@
       </c>
       <c r="B459" s="0" t="n">
         <f aca="false">B458+1</f>
-        <v>2000107</v>
+        <v>2000458</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D459" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G459" s="0" t="s">
         <v>12</v>
@@ -11703,10 +11723,10 @@
       </c>
       <c r="B460" s="0" t="n">
         <f aca="false">B459+1</f>
-        <v>2000108</v>
+        <v>2000459</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D460" s="0" t="s">
         <v>73</v>
@@ -11727,16 +11747,16 @@
       </c>
       <c r="B461" s="0" t="n">
         <f aca="false">B460+1</f>
-        <v>2000109</v>
+        <v>2000460</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E461" s="0" t="s">
-        <v>133</v>
+        <v>74</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F461" s="1" t="s">
         <v>134</v>
@@ -11751,10 +11771,10 @@
       </c>
       <c r="B462" s="0" t="n">
         <f aca="false">B461+1</f>
-        <v>2000110</v>
+        <v>2000461</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D462" s="0" t="s">
         <v>74</v>
@@ -11775,16 +11795,16 @@
       </c>
       <c r="B463" s="0" t="n">
         <f aca="false">B462+1</f>
-        <v>2000111</v>
+        <v>2000462</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D463" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F463" s="1" t="s">
         <v>134</v>
@@ -11799,10 +11819,10 @@
       </c>
       <c r="B464" s="0" t="n">
         <f aca="false">B463+1</f>
-        <v>2000112</v>
+        <v>2000463</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D464" s="0" t="s">
         <v>75</v>
@@ -11823,16 +11843,16 @@
       </c>
       <c r="B465" s="0" t="n">
         <f aca="false">B464+1</f>
-        <v>2000113</v>
+        <v>2000464</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E465" s="0" t="s">
-        <v>133</v>
+        <v>76</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F465" s="1" t="s">
         <v>134</v>
@@ -11847,10 +11867,10 @@
       </c>
       <c r="B466" s="0" t="n">
         <f aca="false">B465+1</f>
-        <v>2000114</v>
+        <v>2000465</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D466" s="0" t="s">
         <v>76</v>
@@ -11870,19 +11890,20 @@
         <v>129</v>
       </c>
       <c r="B467" s="0" t="n">
-        <v>2000206</v>
+        <f aca="false">B466+1</f>
+        <v>2000466</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>136</v>
+        <v>77</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G467" s="0" t="s">
         <v>12</v>
@@ -11893,10 +11914,11 @@
         <v>129</v>
       </c>
       <c r="B468" s="0" t="n">
-        <v>2000209</v>
+        <f aca="false">B467+1</f>
+        <v>2000467</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D468" s="0" t="s">
         <v>77</v>
@@ -11916,19 +11938,20 @@
         <v>129</v>
       </c>
       <c r="B469" s="0" t="n">
-        <v>2000212</v>
+        <f aca="false">B468+1</f>
+        <v>2000468</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G469" s="0" t="s">
         <v>12</v>
@@ -11939,10 +11962,11 @@
         <v>129</v>
       </c>
       <c r="B470" s="0" t="n">
-        <v>2000215</v>
+        <f aca="false">B469+1</f>
+        <v>2000469</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D470" s="0" t="s">
         <v>80</v>
@@ -11962,16 +11986,17 @@
         <v>129</v>
       </c>
       <c r="B471" s="0" t="n">
-        <v>2000218</v>
+        <f aca="false">B470+1</f>
+        <v>2000470</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E471" s="0" t="s">
-        <v>133</v>
+        <v>81</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>134</v>
@@ -11985,10 +12010,11 @@
         <v>129</v>
       </c>
       <c r="B472" s="0" t="n">
-        <v>2000221</v>
+        <f aca="false">B471+1</f>
+        <v>2000471</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D472" s="0" t="s">
         <v>81</v>
@@ -12008,16 +12034,17 @@
         <v>129</v>
       </c>
       <c r="B473" s="0" t="n">
-        <v>2000224</v>
+        <f aca="false">B472+1</f>
+        <v>2000472</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>136</v>
+        <v>82</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>134</v>
@@ -12031,10 +12058,11 @@
         <v>129</v>
       </c>
       <c r="B474" s="0" t="n">
-        <v>2000227</v>
+        <f aca="false">B473+1</f>
+        <v>2000473</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D474" s="0" t="s">
         <v>82</v>
@@ -12054,16 +12082,17 @@
         <v>129</v>
       </c>
       <c r="B475" s="0" t="n">
-        <v>2000230</v>
+        <f aca="false">B474+1</f>
+        <v>2000474</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E475" s="0" t="s">
-        <v>133</v>
+        <v>83</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>134</v>
@@ -12077,10 +12106,11 @@
         <v>129</v>
       </c>
       <c r="B476" s="0" t="n">
-        <v>2000233</v>
+        <f aca="false">B475+1</f>
+        <v>2000475</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D476" s="0" t="s">
         <v>83</v>
@@ -12100,16 +12130,17 @@
         <v>129</v>
       </c>
       <c r="B477" s="0" t="n">
-        <v>2000236</v>
+        <f aca="false">B476+1</f>
+        <v>2000476</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>136</v>
+        <v>84</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F477" s="1" t="s">
         <v>134</v>
@@ -12123,10 +12154,11 @@
         <v>129</v>
       </c>
       <c r="B478" s="0" t="n">
-        <v>2000239</v>
+        <f aca="false">B477+1</f>
+        <v>2000477</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D478" s="0" t="s">
         <v>84</v>
@@ -12146,16 +12178,17 @@
         <v>129</v>
       </c>
       <c r="B479" s="0" t="n">
-        <v>2000242</v>
+        <f aca="false">B478+1</f>
+        <v>2000478</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E479" s="0" t="s">
-        <v>133</v>
+        <v>85</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>134</v>
@@ -12169,10 +12202,11 @@
         <v>129</v>
       </c>
       <c r="B480" s="0" t="n">
-        <v>2000245</v>
+        <f aca="false">B479+1</f>
+        <v>2000479</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D480" s="0" t="s">
         <v>85</v>
@@ -12192,19 +12226,20 @@
         <v>129</v>
       </c>
       <c r="B481" s="0" t="n">
-        <v>2000248</v>
+        <f aca="false">B480+1</f>
+        <v>2000480</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E481" s="1" t="s">
-        <v>136</v>
+        <v>86</v>
+      </c>
+      <c r="E481" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G481" s="0" t="s">
         <v>12</v>
@@ -12215,10 +12250,11 @@
         <v>129</v>
       </c>
       <c r="B482" s="0" t="n">
-        <v>2000251</v>
+        <f aca="false">B481+1</f>
+        <v>2000481</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D482" s="0" t="s">
         <v>86</v>
@@ -12238,19 +12274,20 @@
         <v>129</v>
       </c>
       <c r="B483" s="0" t="n">
-        <v>2000254</v>
+        <f aca="false">B482+1</f>
+        <v>2000482</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G483" s="0" t="s">
         <v>12</v>
@@ -12261,10 +12298,11 @@
         <v>129</v>
       </c>
       <c r="B484" s="0" t="n">
-        <v>2000257</v>
+        <f aca="false">B483+1</f>
+        <v>2000483</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D484" s="0" t="s">
         <v>90</v>
@@ -12284,16 +12322,17 @@
         <v>129</v>
       </c>
       <c r="B485" s="0" t="n">
-        <v>2000260</v>
+        <f aca="false">B484+1</f>
+        <v>2000484</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E485" s="0" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>134</v>
@@ -12307,10 +12346,11 @@
         <v>129</v>
       </c>
       <c r="B486" s="0" t="n">
-        <v>2000263</v>
+        <f aca="false">B485+1</f>
+        <v>2000485</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D486" s="0" t="s">
         <v>91</v>
@@ -12330,16 +12370,17 @@
         <v>129</v>
       </c>
       <c r="B487" s="0" t="n">
-        <v>2000266</v>
+        <f aca="false">B486+1</f>
+        <v>2000486</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E487" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>134</v>
@@ -12353,10 +12394,11 @@
         <v>129</v>
       </c>
       <c r="B488" s="0" t="n">
-        <v>2000269</v>
+        <f aca="false">B487+1</f>
+        <v>2000487</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D488" s="0" t="s">
         <v>92</v>
@@ -12376,16 +12418,17 @@
         <v>129</v>
       </c>
       <c r="B489" s="0" t="n">
-        <v>2000272</v>
+        <f aca="false">B488+1</f>
+        <v>2000488</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E489" s="0" t="s">
-        <v>133</v>
+        <v>93</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>134</v>
@@ -12399,10 +12442,11 @@
         <v>129</v>
       </c>
       <c r="B490" s="0" t="n">
-        <v>2000275</v>
+        <f aca="false">B489+1</f>
+        <v>2000489</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D490" s="0" t="s">
         <v>93</v>
@@ -12422,19 +12466,20 @@
         <v>129</v>
       </c>
       <c r="B491" s="0" t="n">
-        <v>2000278</v>
+        <f aca="false">B490+1</f>
+        <v>2000490</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E491" s="1" t="s">
-        <v>136</v>
+        <v>94</v>
+      </c>
+      <c r="E491" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G491" s="0" t="s">
         <v>12</v>
@@ -12445,10 +12490,11 @@
         <v>129</v>
       </c>
       <c r="B492" s="0" t="n">
-        <v>2000281</v>
+        <f aca="false">B491+1</f>
+        <v>2000491</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D492" s="0" t="s">
         <v>94</v>
@@ -12468,16 +12514,17 @@
         <v>129</v>
       </c>
       <c r="B493" s="0" t="n">
-        <v>2000284</v>
+        <f aca="false">B492+1</f>
+        <v>2000492</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D493" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>131</v>
@@ -12491,10 +12538,11 @@
         <v>129</v>
       </c>
       <c r="B494" s="0" t="n">
-        <v>2000287</v>
+        <f aca="false">B493+1</f>
+        <v>2000493</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D494" s="0" t="s">
         <v>98</v>
@@ -12514,19 +12562,20 @@
         <v>129</v>
       </c>
       <c r="B495" s="0" t="n">
-        <v>2000290</v>
+        <f aca="false">B494+1</f>
+        <v>2000494</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G495" s="0" t="s">
         <v>12</v>
@@ -12537,10 +12586,11 @@
         <v>129</v>
       </c>
       <c r="B496" s="0" t="n">
-        <v>2000293</v>
+        <f aca="false">B495+1</f>
+        <v>2000495</v>
       </c>
       <c r="C496" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D496" s="0" t="s">
         <v>102</v>
@@ -12560,16 +12610,17 @@
         <v>129</v>
       </c>
       <c r="B497" s="0" t="n">
-        <v>2000296</v>
+        <f aca="false">B496+1</f>
+        <v>2000496</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D497" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E497" s="0" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>134</v>
@@ -12583,10 +12634,11 @@
         <v>129</v>
       </c>
       <c r="B498" s="0" t="n">
-        <v>2000299</v>
+        <f aca="false">B497+1</f>
+        <v>2000497</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D498" s="0" t="s">
         <v>103</v>
@@ -12606,19 +12658,20 @@
         <v>129</v>
       </c>
       <c r="B499" s="0" t="n">
-        <v>2000302</v>
+        <f aca="false">B498+1</f>
+        <v>2000498</v>
       </c>
       <c r="C499" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D499" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E499" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
+      </c>
+      <c r="E499" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G499" s="0" t="s">
         <v>12</v>
@@ -12629,10 +12682,11 @@
         <v>129</v>
       </c>
       <c r="B500" s="0" t="n">
-        <v>2000305</v>
+        <f aca="false">B499+1</f>
+        <v>2000499</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D500" s="0" t="s">
         <v>104</v>
@@ -12652,16 +12706,17 @@
         <v>129</v>
       </c>
       <c r="B501" s="0" t="n">
-        <v>2000308</v>
+        <f aca="false">B500+1</f>
+        <v>2000500</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>131</v>
@@ -12675,19 +12730,20 @@
         <v>129</v>
       </c>
       <c r="B502" s="0" t="n">
-        <v>2000311</v>
+        <f aca="false">B501+1</f>
+        <v>2000501</v>
       </c>
       <c r="C502" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D502" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G502" s="0" t="s">
         <v>12</v>
@@ -12698,10 +12754,11 @@
         <v>129</v>
       </c>
       <c r="B503" s="0" t="n">
-        <v>2000314</v>
+        <f aca="false">B502+1</f>
+        <v>2000502</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D503" s="0" t="s">
         <v>112</v>
@@ -12721,16 +12778,17 @@
         <v>129</v>
       </c>
       <c r="B504" s="0" t="n">
-        <v>2000317</v>
+        <f aca="false">B503+1</f>
+        <v>2000503</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D504" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E504" s="0" t="s">
-        <v>133</v>
+        <v>113</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>134</v>
@@ -12744,10 +12802,11 @@
         <v>129</v>
       </c>
       <c r="B505" s="0" t="n">
-        <v>2000320</v>
+        <f aca="false">B504+1</f>
+        <v>2000504</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D505" s="0" t="s">
         <v>113</v>
@@ -12767,16 +12826,17 @@
         <v>129</v>
       </c>
       <c r="B506" s="0" t="n">
-        <v>2000323</v>
+        <f aca="false">B505+1</f>
+        <v>2000505</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
+      </c>
+      <c r="E506" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>134</v>
@@ -12790,10 +12850,11 @@
         <v>129</v>
       </c>
       <c r="B507" s="0" t="n">
-        <v>2000326</v>
+        <f aca="false">B506+1</f>
+        <v>2000506</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D507" s="0" t="s">
         <v>114</v>
@@ -12813,13 +12874,14 @@
         <v>129</v>
       </c>
       <c r="B508" s="0" t="n">
-        <v>2000329</v>
+        <f aca="false">B507+1</f>
+        <v>2000507</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E508" s="0" t="s">
         <v>133</v>
@@ -12836,10 +12898,11 @@
         <v>129</v>
       </c>
       <c r="B509" s="0" t="n">
-        <v>2000332</v>
+        <f aca="false">B508+1</f>
+        <v>2000508</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D509" s="0" t="s">
         <v>115</v>
@@ -12859,16 +12922,17 @@
         <v>129</v>
       </c>
       <c r="B510" s="0" t="n">
-        <v>2000335</v>
+        <f aca="false">B509+1</f>
+        <v>2000509</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E510" s="0" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>134</v>
@@ -12882,10 +12946,11 @@
         <v>129</v>
       </c>
       <c r="B511" s="0" t="n">
-        <v>2000338</v>
+        <f aca="false">B510+1</f>
+        <v>2000510</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D511" s="0" t="s">
         <v>116</v>
@@ -12905,19 +12970,20 @@
         <v>129</v>
       </c>
       <c r="B512" s="0" t="n">
-        <v>2000341</v>
+        <f aca="false">B511+1</f>
+        <v>2000511</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G512" s="0" t="s">
         <v>12</v>
@@ -12928,10 +12994,11 @@
         <v>129</v>
       </c>
       <c r="B513" s="0" t="n">
-        <v>2000344</v>
+        <f aca="false">B512+1</f>
+        <v>2000512</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D513" s="0" t="s">
         <v>117</v>
@@ -12946,24 +13013,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B514" s="0" t="n">
-        <v>2000347</v>
+        <f aca="false">B513+1</f>
+        <v>2000513</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F514" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="F514" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="G514" s="0" t="s">
         <v>12</v>
@@ -12974,10 +13042,11 @@
         <v>129</v>
       </c>
       <c r="B515" s="0" t="n">
-        <v>2000350</v>
+        <f aca="false">B514+1</f>
+        <v>2000514</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D515" s="0" t="s">
         <v>121</v>
@@ -12992,21 +13061,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B516" s="0" t="n">
-        <v>2000353</v>
+        <f aca="false">B515+1</f>
+        <v>2000515</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E516" s="0" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F516" s="0" t="s">
         <v>134</v>
@@ -13020,10 +13090,11 @@
         <v>129</v>
       </c>
       <c r="B517" s="0" t="n">
-        <v>2000356</v>
+        <f aca="false">B516+1</f>
+        <v>2000516</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D517" s="0" t="s">
         <v>122</v>
@@ -13038,21 +13109,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B518" s="0" t="n">
-        <v>2000359</v>
+        <f aca="false">B517+1</f>
+        <v>2000517</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E518" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="E518" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F518" s="0" t="s">
         <v>134</v>
@@ -13066,10 +13138,11 @@
         <v>129</v>
       </c>
       <c r="B519" s="0" t="n">
-        <v>2000362</v>
+        <f aca="false">B518+1</f>
+        <v>2000518</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D519" s="0" t="s">
         <v>123</v>
@@ -13084,21 +13157,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B520" s="0" t="n">
-        <v>2000365</v>
+        <f aca="false">B519+1</f>
+        <v>2000519</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E520" s="0" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F520" s="0" t="s">
         <v>134</v>
@@ -13112,10 +13186,11 @@
         <v>129</v>
       </c>
       <c r="B521" s="0" t="n">
-        <v>2000368</v>
+        <f aca="false">B520+1</f>
+        <v>2000520</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D521" s="0" t="s">
         <v>124</v>
@@ -13130,21 +13205,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B522" s="0" t="n">
-        <v>2000371</v>
+        <f aca="false">B521+1</f>
+        <v>2000521</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E522" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="E522" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F522" s="0" t="s">
         <v>134</v>
@@ -13158,10 +13234,11 @@
         <v>129</v>
       </c>
       <c r="B523" s="0" t="n">
-        <v>2000374</v>
+        <f aca="false">B522+1</f>
+        <v>2000522</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D523" s="0" t="s">
         <v>125</v>
@@ -13176,21 +13253,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B524" s="0" t="n">
-        <v>2000377</v>
+        <f aca="false">B523+1</f>
+        <v>2000523</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E524" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F524" s="0" t="s">
         <v>134</v>
@@ -13204,10 +13282,11 @@
         <v>129</v>
       </c>
       <c r="B525" s="0" t="n">
-        <v>2000380</v>
+        <f aca="false">B524+1</f>
+        <v>2000524</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D525" s="0" t="s">
         <v>126</v>
@@ -13222,21 +13301,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B526" s="0" t="n">
-        <v>2000383</v>
+        <f aca="false">B525+1</f>
+        <v>2000525</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E526" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="E526" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F526" s="0" t="s">
         <v>134</v>
@@ -13250,10 +13330,11 @@
         <v>129</v>
       </c>
       <c r="B527" s="0" t="n">
-        <v>2000386</v>
+        <f aca="false">B526+1</f>
+        <v>2000526</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D527" s="0" t="s">
         <v>127</v>
@@ -13268,21 +13349,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>2000389</v>
+        <f aca="false">B527+1</f>
+        <v>2000527</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E528" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F528" s="0" t="s">
         <v>134</v>
@@ -13296,10 +13378,11 @@
         <v>129</v>
       </c>
       <c r="B529" s="0" t="n">
-        <v>2000392</v>
+        <f aca="false">B528+1</f>
+        <v>2000528</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D529" s="0" t="s">
         <v>128</v>
@@ -13314,24 +13397,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B530" s="0" t="n">
-        <v>2000395</v>
+        <f aca="false">B529+1</f>
+        <v>2000529</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E530" s="1" t="s">
-        <v>136</v>
+        <v>9</v>
+      </c>
+      <c r="E530" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G530" s="0" t="s">
         <v>12</v>
@@ -13343,10 +13427,10 @@
       </c>
       <c r="B531" s="0" t="n">
         <f aca="false">B530+1</f>
-        <v>2000396</v>
+        <v>2000530</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D531" s="0" t="s">
         <v>9</v>
@@ -13367,16 +13451,16 @@
       </c>
       <c r="B532" s="0" t="n">
         <f aca="false">B531+1</f>
-        <v>2000397</v>
+        <v>2000531</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F532" s="0" t="s">
         <v>150</v>
@@ -13391,10 +13475,10 @@
       </c>
       <c r="B533" s="0" t="n">
         <f aca="false">B532+1</f>
-        <v>2000398</v>
+        <v>2000532</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D533" s="0" t="s">
         <v>20</v>
@@ -13409,24 +13493,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
         <v>148</v>
       </c>
       <c r="B534" s="0" t="n">
-        <v>2000011</v>
+        <f aca="false">B533+1</f>
+        <v>2000533</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F534" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G534" s="0" t="s">
         <v>12</v>
@@ -13437,10 +13522,11 @@
         <v>148</v>
       </c>
       <c r="B535" s="0" t="n">
-        <v>2000014</v>
+        <f aca="false">B534+1</f>
+        <v>2000534</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D535" s="0" t="s">
         <v>24</v>
@@ -13460,16 +13546,17 @@
         <v>148</v>
       </c>
       <c r="B536" s="0" t="n">
-        <v>2000017</v>
+        <f aca="false">B535+1</f>
+        <v>2000535</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E536" s="0" t="s">
-        <v>152</v>
+        <v>30</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>153</v>
@@ -13483,10 +13570,11 @@
         <v>148</v>
       </c>
       <c r="B537" s="0" t="n">
-        <v>2000020</v>
+        <f aca="false">B536+1</f>
+        <v>2000536</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D537" s="0" t="s">
         <v>30</v>
@@ -13506,16 +13594,17 @@
         <v>148</v>
       </c>
       <c r="B538" s="0" t="n">
-        <v>2000023</v>
+        <f aca="false">B537+1</f>
+        <v>2000537</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>153</v>
@@ -13529,10 +13618,11 @@
         <v>148</v>
       </c>
       <c r="B539" s="0" t="n">
-        <v>2000026</v>
+        <f aca="false">B538+1</f>
+        <v>2000538</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D539" s="0" t="s">
         <v>34</v>
@@ -13552,16 +13642,17 @@
         <v>148</v>
       </c>
       <c r="B540" s="0" t="n">
-        <v>2000029</v>
+        <f aca="false">B539+1</f>
+        <v>2000539</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F540" s="1" t="s">
         <v>153</v>
@@ -13575,10 +13666,11 @@
         <v>148</v>
       </c>
       <c r="B541" s="0" t="n">
-        <v>2000032</v>
+        <f aca="false">B540+1</f>
+        <v>2000540</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D541" s="0" t="s">
         <v>35</v>
@@ -13598,16 +13690,17 @@
         <v>148</v>
       </c>
       <c r="B542" s="0" t="n">
-        <v>2000035</v>
+        <f aca="false">B541+1</f>
+        <v>2000541</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>153</v>
@@ -13621,10 +13714,11 @@
         <v>148</v>
       </c>
       <c r="B543" s="0" t="n">
-        <v>2000038</v>
+        <f aca="false">B542+1</f>
+        <v>2000542</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D543" s="0" t="s">
         <v>36</v>
@@ -13644,16 +13738,17 @@
         <v>148</v>
       </c>
       <c r="B544" s="0" t="n">
-        <v>2000041</v>
+        <f aca="false">B543+1</f>
+        <v>2000543</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>153</v>
@@ -13667,10 +13762,11 @@
         <v>148</v>
       </c>
       <c r="B545" s="0" t="n">
-        <v>2000044</v>
+        <f aca="false">B544+1</f>
+        <v>2000544</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D545" s="0" t="s">
         <v>37</v>
@@ -13690,16 +13786,17 @@
         <v>148</v>
       </c>
       <c r="B546" s="0" t="n">
-        <v>2000047</v>
+        <f aca="false">B545+1</f>
+        <v>2000545</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>153</v>
@@ -13713,10 +13810,11 @@
         <v>148</v>
       </c>
       <c r="B547" s="0" t="n">
-        <v>2000050</v>
+        <f aca="false">B546+1</f>
+        <v>2000546</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D547" s="0" t="s">
         <v>38</v>
@@ -13736,16 +13834,17 @@
         <v>148</v>
       </c>
       <c r="B548" s="0" t="n">
-        <v>2000053</v>
+        <f aca="false">B547+1</f>
+        <v>2000547</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>153</v>
@@ -13759,10 +13858,11 @@
         <v>148</v>
       </c>
       <c r="B549" s="0" t="n">
-        <v>2000056</v>
+        <f aca="false">B548+1</f>
+        <v>2000548</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D549" s="0" t="s">
         <v>39</v>
@@ -13782,19 +13882,20 @@
         <v>148</v>
       </c>
       <c r="B550" s="0" t="n">
-        <v>2000059</v>
+        <f aca="false">B549+1</f>
+        <v>2000549</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E550" s="1" t="s">
-        <v>154</v>
+        <v>40</v>
+      </c>
+      <c r="E550" s="0" t="s">
+        <v>156</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G550" s="0" t="s">
         <v>12</v>
@@ -13805,10 +13906,11 @@
         <v>148</v>
       </c>
       <c r="B551" s="0" t="n">
-        <v>2000062</v>
+        <f aca="false">B550+1</f>
+        <v>2000550</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D551" s="0" t="s">
         <v>40</v>
@@ -13828,19 +13930,20 @@
         <v>148</v>
       </c>
       <c r="B552" s="0" t="n">
-        <v>2000065</v>
+        <f aca="false">B551+1</f>
+        <v>2000551</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E552" s="0" t="s">
-        <v>156</v>
+        <v>44</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G552" s="0" t="s">
         <v>12</v>
@@ -13851,10 +13954,11 @@
         <v>148</v>
       </c>
       <c r="B553" s="0" t="n">
-        <v>2000068</v>
+        <f aca="false">B552+1</f>
+        <v>2000552</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D553" s="0" t="s">
         <v>44</v>
@@ -13875,16 +13979,16 @@
       </c>
       <c r="B554" s="0" t="n">
         <f aca="false">B553+1</f>
-        <v>2000069</v>
+        <v>2000553</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F554" s="1" t="s">
         <v>153</v>
@@ -13899,16 +14003,16 @@
       </c>
       <c r="B555" s="0" t="n">
         <f aca="false">B554+1</f>
-        <v>2000070</v>
+        <v>2000554</v>
       </c>
       <c r="C555" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F555" s="1" t="s">
         <v>153</v>
@@ -13923,19 +14027,19 @@
       </c>
       <c r="B556" s="0" t="n">
         <f aca="false">B555+1</f>
-        <v>2000071</v>
+        <v>2000555</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E556" s="1" t="s">
-        <v>154</v>
+        <v>46</v>
+      </c>
+      <c r="E556" s="0" t="s">
+        <v>157</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G556" s="0" t="s">
         <v>12</v>
@@ -13947,19 +14051,19 @@
       </c>
       <c r="B557" s="0" t="n">
         <f aca="false">B556+1</f>
-        <v>2000072</v>
+        <v>2000556</v>
       </c>
       <c r="C557" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E557" s="1" t="s">
-        <v>154</v>
+        <v>46</v>
+      </c>
+      <c r="E557" s="0" t="s">
+        <v>157</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G557" s="0" t="s">
         <v>12</v>
@@ -13971,19 +14075,19 @@
       </c>
       <c r="B558" s="0" t="n">
         <f aca="false">B557+1</f>
-        <v>2000073</v>
+        <v>2000557</v>
       </c>
       <c r="C558" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E558" s="0" t="s">
-        <v>157</v>
+        <v>50</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G558" s="0" t="s">
         <v>12</v>
@@ -13995,19 +14099,19 @@
       </c>
       <c r="B559" s="0" t="n">
         <f aca="false">B558+1</f>
-        <v>2000074</v>
+        <v>2000558</v>
       </c>
       <c r="C559" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E559" s="0" t="s">
-        <v>157</v>
+        <v>50</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G559" s="0" t="s">
         <v>12</v>
@@ -14019,13 +14123,13 @@
       </c>
       <c r="B560" s="0" t="n">
         <f aca="false">B559+1</f>
-        <v>2000075</v>
+        <v>2000559</v>
       </c>
       <c r="C560" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E560" s="1" t="s">
         <v>155</v>
@@ -14043,13 +14147,13 @@
       </c>
       <c r="B561" s="0" t="n">
         <f aca="false">B560+1</f>
-        <v>2000076</v>
+        <v>2000560</v>
       </c>
       <c r="C561" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>155</v>
@@ -14067,16 +14171,16 @@
       </c>
       <c r="B562" s="0" t="n">
         <f aca="false">B561+1</f>
-        <v>2000077</v>
+        <v>2000561</v>
       </c>
       <c r="C562" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>153</v>
@@ -14091,16 +14195,16 @@
       </c>
       <c r="B563" s="0" t="n">
         <f aca="false">B562+1</f>
-        <v>2000078</v>
+        <v>2000562</v>
       </c>
       <c r="C563" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>153</v>
@@ -14115,13 +14219,13 @@
       </c>
       <c r="B564" s="0" t="n">
         <f aca="false">B563+1</f>
-        <v>2000079</v>
+        <v>2000563</v>
       </c>
       <c r="C564" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E564" s="1" t="s">
         <v>154</v>
@@ -14139,13 +14243,13 @@
       </c>
       <c r="B565" s="0" t="n">
         <f aca="false">B564+1</f>
-        <v>2000080</v>
+        <v>2000564</v>
       </c>
       <c r="C565" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E565" s="1" t="s">
         <v>154</v>
@@ -14163,16 +14267,16 @@
       </c>
       <c r="B566" s="0" t="n">
         <f aca="false">B565+1</f>
-        <v>2000081</v>
+        <v>2000565</v>
       </c>
       <c r="C566" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>153</v>
@@ -14187,16 +14291,16 @@
       </c>
       <c r="B567" s="0" t="n">
         <f aca="false">B566+1</f>
-        <v>2000082</v>
+        <v>2000566</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>153</v>
@@ -14211,19 +14315,19 @@
       </c>
       <c r="B568" s="0" t="n">
         <f aca="false">B567+1</f>
-        <v>2000083</v>
+        <v>2000567</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E568" s="1" t="s">
-        <v>155</v>
+        <v>55</v>
+      </c>
+      <c r="E568" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G568" s="0" t="s">
         <v>12</v>
@@ -14235,13 +14339,13 @@
       </c>
       <c r="B569" s="0" t="n">
         <f aca="false">B568+1</f>
-        <v>2000084</v>
+        <v>2000568</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E569" s="1" t="s">
         <v>155</v>
@@ -14259,19 +14363,19 @@
       </c>
       <c r="B570" s="0" t="n">
         <f aca="false">B569+1</f>
-        <v>2000085</v>
+        <v>2000569</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E570" s="0" t="s">
-        <v>158</v>
+        <v>59</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G570" s="0" t="s">
         <v>12</v>
@@ -14283,16 +14387,16 @@
       </c>
       <c r="B571" s="0" t="n">
         <f aca="false">B570+1</f>
-        <v>2000086</v>
+        <v>2000570</v>
       </c>
       <c r="C571" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>153</v>
@@ -14307,16 +14411,16 @@
       </c>
       <c r="B572" s="0" t="n">
         <f aca="false">B571+1</f>
-        <v>2000087</v>
+        <v>2000571</v>
       </c>
       <c r="C572" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>153</v>
@@ -14331,16 +14435,16 @@
       </c>
       <c r="B573" s="0" t="n">
         <f aca="false">B572+1</f>
-        <v>2000088</v>
+        <v>2000572</v>
       </c>
       <c r="C573" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>153</v>
@@ -14355,16 +14459,16 @@
       </c>
       <c r="B574" s="0" t="n">
         <f aca="false">B573+1</f>
-        <v>2000089</v>
+        <v>2000573</v>
       </c>
       <c r="C574" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D574" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>153</v>
@@ -14379,16 +14483,16 @@
       </c>
       <c r="B575" s="0" t="n">
         <f aca="false">B574+1</f>
-        <v>2000090</v>
+        <v>2000574</v>
       </c>
       <c r="C575" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D575" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>153</v>
@@ -14403,16 +14507,16 @@
       </c>
       <c r="B576" s="0" t="n">
         <f aca="false">B575+1</f>
-        <v>2000091</v>
+        <v>2000575</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>153</v>
@@ -14427,16 +14531,16 @@
       </c>
       <c r="B577" s="0" t="n">
         <f aca="false">B576+1</f>
-        <v>2000092</v>
+        <v>2000576</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F577" s="1" t="s">
         <v>153</v>
@@ -14451,16 +14555,16 @@
       </c>
       <c r="B578" s="0" t="n">
         <f aca="false">B577+1</f>
-        <v>2000093</v>
+        <v>2000577</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F578" s="1" t="s">
         <v>153</v>
@@ -14475,16 +14579,16 @@
       </c>
       <c r="B579" s="0" t="n">
         <f aca="false">B578+1</f>
-        <v>2000094</v>
+        <v>2000578</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F579" s="1" t="s">
         <v>153</v>
@@ -14499,16 +14603,16 @@
       </c>
       <c r="B580" s="0" t="n">
         <f aca="false">B579+1</f>
-        <v>2000095</v>
+        <v>2000579</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>153</v>
@@ -14523,16 +14627,16 @@
       </c>
       <c r="B581" s="0" t="n">
         <f aca="false">B580+1</f>
-        <v>2000096</v>
+        <v>2000580</v>
       </c>
       <c r="C581" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>153</v>
@@ -14547,16 +14651,16 @@
       </c>
       <c r="B582" s="0" t="n">
         <f aca="false">B581+1</f>
-        <v>2000097</v>
+        <v>2000581</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F582" s="1" t="s">
         <v>153</v>
@@ -14571,16 +14675,16 @@
       </c>
       <c r="B583" s="0" t="n">
         <f aca="false">B582+1</f>
-        <v>2000098</v>
+        <v>2000582</v>
       </c>
       <c r="C583" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>153</v>
@@ -14595,16 +14699,16 @@
       </c>
       <c r="B584" s="0" t="n">
         <f aca="false">B583+1</f>
-        <v>2000099</v>
+        <v>2000583</v>
       </c>
       <c r="C584" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F584" s="1" t="s">
         <v>153</v>
@@ -14619,16 +14723,16 @@
       </c>
       <c r="B585" s="0" t="n">
         <f aca="false">B584+1</f>
-        <v>2000100</v>
+        <v>2000584</v>
       </c>
       <c r="C585" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>153</v>
@@ -14643,16 +14747,16 @@
       </c>
       <c r="B586" s="0" t="n">
         <f aca="false">B585+1</f>
-        <v>2000101</v>
+        <v>2000585</v>
       </c>
       <c r="C586" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>153</v>
@@ -14667,16 +14771,16 @@
       </c>
       <c r="B587" s="0" t="n">
         <f aca="false">B586+1</f>
-        <v>2000102</v>
+        <v>2000586</v>
       </c>
       <c r="C587" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>153</v>
@@ -14691,16 +14795,16 @@
       </c>
       <c r="B588" s="0" t="n">
         <f aca="false">B587+1</f>
-        <v>2000103</v>
+        <v>2000587</v>
       </c>
       <c r="C588" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F588" s="1" t="s">
         <v>153</v>
@@ -14715,19 +14819,19 @@
       </c>
       <c r="B589" s="0" t="n">
         <f aca="false">B588+1</f>
-        <v>2000104</v>
+        <v>2000588</v>
       </c>
       <c r="C589" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E589" s="1" t="s">
-        <v>154</v>
+        <v>69</v>
+      </c>
+      <c r="E589" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G589" s="0" t="s">
         <v>12</v>
@@ -14739,19 +14843,19 @@
       </c>
       <c r="B590" s="0" t="n">
         <f aca="false">B589+1</f>
-        <v>2000105</v>
+        <v>2000589</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E590" s="1" t="s">
-        <v>154</v>
+        <v>69</v>
+      </c>
+      <c r="E590" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G590" s="0" t="s">
         <v>12</v>
@@ -14763,19 +14867,19 @@
       </c>
       <c r="B591" s="0" t="n">
         <f aca="false">B590+1</f>
-        <v>2000106</v>
+        <v>2000590</v>
       </c>
       <c r="C591" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E591" s="0" t="s">
-        <v>159</v>
+        <v>73</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G591" s="0" t="s">
         <v>12</v>
@@ -14787,19 +14891,19 @@
       </c>
       <c r="B592" s="0" t="n">
         <f aca="false">B591+1</f>
-        <v>2000107</v>
+        <v>2000591</v>
       </c>
       <c r="C592" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E592" s="0" t="s">
-        <v>159</v>
+        <v>73</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G592" s="0" t="s">
         <v>12</v>
@@ -14811,16 +14915,16 @@
       </c>
       <c r="B593" s="0" t="n">
         <f aca="false">B592+1</f>
-        <v>2000108</v>
+        <v>2000592</v>
       </c>
       <c r="C593" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>153</v>
@@ -14835,16 +14939,16 @@
       </c>
       <c r="B594" s="0" t="n">
         <f aca="false">B593+1</f>
-        <v>2000109</v>
+        <v>2000593</v>
       </c>
       <c r="C594" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>153</v>
@@ -14859,16 +14963,16 @@
       </c>
       <c r="B595" s="0" t="n">
         <f aca="false">B594+1</f>
-        <v>2000110</v>
+        <v>2000594</v>
       </c>
       <c r="C595" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>153</v>
@@ -14883,16 +14987,16 @@
       </c>
       <c r="B596" s="0" t="n">
         <f aca="false">B595+1</f>
-        <v>2000111</v>
+        <v>2000595</v>
       </c>
       <c r="C596" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F596" s="1" t="s">
         <v>153</v>
@@ -14907,16 +15011,16 @@
       </c>
       <c r="B597" s="0" t="n">
         <f aca="false">B596+1</f>
-        <v>2000112</v>
+        <v>2000596</v>
       </c>
       <c r="C597" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F597" s="1" t="s">
         <v>153</v>
@@ -14931,16 +15035,16 @@
       </c>
       <c r="B598" s="0" t="n">
         <f aca="false">B597+1</f>
-        <v>2000113</v>
+        <v>2000597</v>
       </c>
       <c r="C598" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>153</v>
@@ -14955,19 +15059,19 @@
       </c>
       <c r="B599" s="0" t="n">
         <f aca="false">B598+1</f>
-        <v>2000114</v>
+        <v>2000598</v>
       </c>
       <c r="C599" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E599" s="1" t="s">
-        <v>154</v>
+        <v>77</v>
+      </c>
+      <c r="E599" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G599" s="0" t="s">
         <v>12</v>
@@ -14978,19 +15082,20 @@
         <v>148</v>
       </c>
       <c r="B600" s="0" t="n">
-        <v>2000206</v>
+        <f aca="false">B599+1</f>
+        <v>2000599</v>
       </c>
       <c r="C600" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E600" s="1" t="s">
-        <v>154</v>
+        <v>77</v>
+      </c>
+      <c r="E600" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G600" s="0" t="s">
         <v>12</v>
@@ -15001,19 +15106,20 @@
         <v>148</v>
       </c>
       <c r="B601" s="0" t="n">
-        <v>2000209</v>
+        <f aca="false">B600+1</f>
+        <v>2000600</v>
       </c>
       <c r="C601" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E601" s="0" t="s">
-        <v>160</v>
+        <v>80</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G601" s="0" t="s">
         <v>12</v>
@@ -15024,19 +15130,20 @@
         <v>148</v>
       </c>
       <c r="B602" s="0" t="n">
-        <v>2000212</v>
+        <f aca="false">B601+1</f>
+        <v>2000601</v>
       </c>
       <c r="C602" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E602" s="0" t="s">
-        <v>160</v>
+        <v>80</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G602" s="0" t="s">
         <v>12</v>
@@ -15047,16 +15154,17 @@
         <v>148</v>
       </c>
       <c r="B603" s="0" t="n">
-        <v>2000215</v>
+        <f aca="false">B602+1</f>
+        <v>2000602</v>
       </c>
       <c r="C603" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>153</v>
@@ -15070,16 +15178,17 @@
         <v>148</v>
       </c>
       <c r="B604" s="0" t="n">
-        <v>2000218</v>
+        <f aca="false">B603+1</f>
+        <v>2000603</v>
       </c>
       <c r="C604" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>153</v>
@@ -15093,16 +15202,17 @@
         <v>148</v>
       </c>
       <c r="B605" s="0" t="n">
-        <v>2000221</v>
+        <f aca="false">B604+1</f>
+        <v>2000604</v>
       </c>
       <c r="C605" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F605" s="1" t="s">
         <v>153</v>
@@ -15116,16 +15226,17 @@
         <v>148</v>
       </c>
       <c r="B606" s="0" t="n">
-        <v>2000224</v>
+        <f aca="false">B605+1</f>
+        <v>2000605</v>
       </c>
       <c r="C606" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F606" s="1" t="s">
         <v>153</v>
@@ -15139,16 +15250,17 @@
         <v>148</v>
       </c>
       <c r="B607" s="0" t="n">
-        <v>2000227</v>
+        <f aca="false">B606+1</f>
+        <v>2000606</v>
       </c>
       <c r="C607" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F607" s="1" t="s">
         <v>153</v>
@@ -15162,16 +15274,17 @@
         <v>148</v>
       </c>
       <c r="B608" s="0" t="n">
-        <v>2000230</v>
+        <f aca="false">B607+1</f>
+        <v>2000607</v>
       </c>
       <c r="C608" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>153</v>
@@ -15185,16 +15298,17 @@
         <v>148</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>2000233</v>
+        <f aca="false">B608+1</f>
+        <v>2000608</v>
       </c>
       <c r="C609" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F609" s="1" t="s">
         <v>153</v>
@@ -15208,16 +15322,17 @@
         <v>148</v>
       </c>
       <c r="B610" s="0" t="n">
-        <v>2000236</v>
+        <f aca="false">B609+1</f>
+        <v>2000609</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>153</v>
@@ -15231,16 +15346,17 @@
         <v>148</v>
       </c>
       <c r="B611" s="0" t="n">
-        <v>2000239</v>
+        <f aca="false">B610+1</f>
+        <v>2000610</v>
       </c>
       <c r="C611" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F611" s="1" t="s">
         <v>153</v>
@@ -15254,16 +15370,17 @@
         <v>148</v>
       </c>
       <c r="B612" s="0" t="n">
-        <v>2000242</v>
+        <f aca="false">B611+1</f>
+        <v>2000611</v>
       </c>
       <c r="C612" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D612" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F612" s="1" t="s">
         <v>153</v>
@@ -15277,19 +15394,20 @@
         <v>148</v>
       </c>
       <c r="B613" s="0" t="n">
-        <v>2000245</v>
+        <f aca="false">B612+1</f>
+        <v>2000612</v>
       </c>
       <c r="C613" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E613" s="1" t="s">
-        <v>154</v>
+        <v>86</v>
+      </c>
+      <c r="E613" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G613" s="0" t="s">
         <v>12</v>
@@ -15300,19 +15418,20 @@
         <v>148</v>
       </c>
       <c r="B614" s="0" t="n">
-        <v>2000248</v>
+        <f aca="false">B613+1</f>
+        <v>2000613</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E614" s="1" t="s">
-        <v>154</v>
+        <v>86</v>
+      </c>
+      <c r="E614" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G614" s="0" t="s">
         <v>12</v>
@@ -15323,19 +15442,20 @@
         <v>148</v>
       </c>
       <c r="B615" s="0" t="n">
-        <v>2000251</v>
+        <f aca="false">B614+1</f>
+        <v>2000614</v>
       </c>
       <c r="C615" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E615" s="0" t="s">
-        <v>161</v>
+        <v>90</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G615" s="0" t="s">
         <v>12</v>
@@ -15346,19 +15466,20 @@
         <v>148</v>
       </c>
       <c r="B616" s="0" t="n">
-        <v>2000254</v>
+        <f aca="false">B615+1</f>
+        <v>2000615</v>
       </c>
       <c r="C616" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E616" s="0" t="s">
-        <v>161</v>
+        <v>90</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G616" s="0" t="s">
         <v>12</v>
@@ -15369,16 +15490,17 @@
         <v>148</v>
       </c>
       <c r="B617" s="0" t="n">
-        <v>2000257</v>
+        <f aca="false">B616+1</f>
+        <v>2000616</v>
       </c>
       <c r="C617" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F617" s="1" t="s">
         <v>153</v>
@@ -15392,16 +15514,17 @@
         <v>148</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>2000260</v>
+        <f aca="false">B617+1</f>
+        <v>2000617</v>
       </c>
       <c r="C618" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F618" s="1" t="s">
         <v>153</v>
@@ -15415,16 +15538,17 @@
         <v>148</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>2000263</v>
+        <f aca="false">B618+1</f>
+        <v>2000618</v>
       </c>
       <c r="C619" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F619" s="1" t="s">
         <v>153</v>
@@ -15438,16 +15562,17 @@
         <v>148</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>2000266</v>
+        <f aca="false">B619+1</f>
+        <v>2000619</v>
       </c>
       <c r="C620" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F620" s="1" t="s">
         <v>153</v>
@@ -15461,16 +15586,17 @@
         <v>148</v>
       </c>
       <c r="B621" s="0" t="n">
-        <v>2000269</v>
+        <f aca="false">B620+1</f>
+        <v>2000620</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F621" s="1" t="s">
         <v>153</v>
@@ -15484,16 +15610,17 @@
         <v>148</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>2000272</v>
+        <f aca="false">B621+1</f>
+        <v>2000621</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F622" s="1" t="s">
         <v>153</v>
@@ -15507,19 +15634,20 @@
         <v>148</v>
       </c>
       <c r="B623" s="0" t="n">
-        <v>2000275</v>
+        <f aca="false">B622+1</f>
+        <v>2000622</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E623" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
+      </c>
+      <c r="E623" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G623" s="0" t="s">
         <v>12</v>
@@ -15530,19 +15658,20 @@
         <v>148</v>
       </c>
       <c r="B624" s="0" t="n">
-        <v>2000278</v>
+        <f aca="false">B623+1</f>
+        <v>2000623</v>
       </c>
       <c r="C624" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E624" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
+      </c>
+      <c r="E624" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G624" s="0" t="s">
         <v>12</v>
@@ -15553,16 +15682,17 @@
         <v>148</v>
       </c>
       <c r="B625" s="0" t="n">
-        <v>2000281</v>
+        <f aca="false">B624+1</f>
+        <v>2000624</v>
       </c>
       <c r="C625" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F625" s="1" t="s">
         <v>150</v>
@@ -15576,16 +15706,17 @@
         <v>148</v>
       </c>
       <c r="B626" s="0" t="n">
-        <v>2000284</v>
+        <f aca="false">B625+1</f>
+        <v>2000625</v>
       </c>
       <c r="C626" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F626" s="1" t="s">
         <v>150</v>
@@ -15599,19 +15730,20 @@
         <v>148</v>
       </c>
       <c r="B627" s="0" t="n">
-        <v>2000287</v>
+        <f aca="false">B626+1</f>
+        <v>2000626</v>
       </c>
       <c r="C627" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E627" s="0" t="s">
-        <v>163</v>
+        <v>102</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G627" s="0" t="s">
         <v>12</v>
@@ -15622,19 +15754,20 @@
         <v>148</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>2000290</v>
+        <f aca="false">B627+1</f>
+        <v>2000627</v>
       </c>
       <c r="C628" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E628" s="0" t="s">
-        <v>163</v>
+        <v>102</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>12</v>
@@ -15645,16 +15778,17 @@
         <v>148</v>
       </c>
       <c r="B629" s="0" t="n">
-        <v>2000293</v>
+        <f aca="false">B628+1</f>
+        <v>2000628</v>
       </c>
       <c r="C629" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F629" s="1" t="s">
         <v>153</v>
@@ -15668,16 +15802,17 @@
         <v>148</v>
       </c>
       <c r="B630" s="0" t="n">
-        <v>2000296</v>
+        <f aca="false">B629+1</f>
+        <v>2000629</v>
       </c>
       <c r="C630" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F630" s="1" t="s">
         <v>153</v>
@@ -15691,19 +15826,20 @@
         <v>148</v>
       </c>
       <c r="B631" s="0" t="n">
-        <v>2000299</v>
+        <f aca="false">B630+1</f>
+        <v>2000630</v>
       </c>
       <c r="C631" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>154</v>
+        <v>104</v>
+      </c>
+      <c r="E631" s="0" t="s">
+        <v>164</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G631" s="0" t="s">
         <v>12</v>
@@ -15714,19 +15850,20 @@
         <v>148</v>
       </c>
       <c r="B632" s="0" t="n">
-        <v>2000302</v>
+        <f aca="false">B631+1</f>
+        <v>2000631</v>
       </c>
       <c r="C632" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E632" s="1" t="s">
-        <v>154</v>
+        <v>104</v>
+      </c>
+      <c r="E632" s="0" t="s">
+        <v>164</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G632" s="0" t="s">
         <v>12</v>
@@ -15737,16 +15874,17 @@
         <v>148</v>
       </c>
       <c r="B633" s="0" t="n">
-        <v>2000305</v>
+        <f aca="false">B632+1</f>
+        <v>2000632</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D633" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F633" s="1" t="s">
         <v>150</v>
@@ -15760,19 +15898,20 @@
         <v>148</v>
       </c>
       <c r="B634" s="0" t="n">
-        <v>2000308</v>
+        <f aca="false">B633+1</f>
+        <v>2000633</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D634" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E634" s="0" t="s">
-        <v>164</v>
+        <v>112</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>12</v>
@@ -15783,19 +15922,20 @@
         <v>148</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>2000311</v>
+        <f aca="false">B634+1</f>
+        <v>2000634</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E635" s="0" t="s">
-        <v>165</v>
+        <v>112</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G635" s="0" t="s">
         <v>12</v>
@@ -15806,16 +15946,17 @@
         <v>148</v>
       </c>
       <c r="B636" s="0" t="n">
-        <v>2000314</v>
+        <f aca="false">B635+1</f>
+        <v>2000635</v>
       </c>
       <c r="C636" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D636" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F636" s="1" t="s">
         <v>153</v>
@@ -15829,16 +15970,17 @@
         <v>148</v>
       </c>
       <c r="B637" s="0" t="n">
-        <v>2000317</v>
+        <f aca="false">B636+1</f>
+        <v>2000636</v>
       </c>
       <c r="C637" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F637" s="1" t="s">
         <v>153</v>
@@ -15852,16 +15994,17 @@
         <v>148</v>
       </c>
       <c r="B638" s="0" t="n">
-        <v>2000320</v>
+        <f aca="false">B637+1</f>
+        <v>2000637</v>
       </c>
       <c r="C638" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F638" s="1" t="s">
         <v>153</v>
@@ -15875,16 +16018,17 @@
         <v>148</v>
       </c>
       <c r="B639" s="0" t="n">
-        <v>2000323</v>
+        <f aca="false">B638+1</f>
+        <v>2000638</v>
       </c>
       <c r="C639" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F639" s="1" t="s">
         <v>153</v>
@@ -15898,13 +16042,14 @@
         <v>148</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>2000326</v>
+        <f aca="false">B639+1</f>
+        <v>2000639</v>
       </c>
       <c r="C640" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E640" s="1" t="s">
         <v>155</v>
@@ -15921,13 +16066,14 @@
         <v>148</v>
       </c>
       <c r="B641" s="0" t="n">
-        <v>2000329</v>
+        <f aca="false">B640+1</f>
+        <v>2000640</v>
       </c>
       <c r="C641" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E641" s="1" t="s">
         <v>155</v>
@@ -15944,16 +16090,17 @@
         <v>148</v>
       </c>
       <c r="B642" s="0" t="n">
-        <v>2000332</v>
+        <f aca="false">B641+1</f>
+        <v>2000641</v>
       </c>
       <c r="C642" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F642" s="1" t="s">
         <v>153</v>
@@ -15967,16 +16114,17 @@
         <v>148</v>
       </c>
       <c r="B643" s="0" t="n">
-        <v>2000335</v>
+        <f aca="false">B642+1</f>
+        <v>2000642</v>
       </c>
       <c r="C643" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F643" s="1" t="s">
         <v>153</v>
@@ -15990,19 +16138,20 @@
         <v>148</v>
       </c>
       <c r="B644" s="0" t="n">
-        <v>2000338</v>
+        <f aca="false">B643+1</f>
+        <v>2000643</v>
       </c>
       <c r="C644" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E644" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="E644" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G644" s="0" t="s">
         <v>12</v>
@@ -16013,19 +16162,20 @@
         <v>148</v>
       </c>
       <c r="B645" s="0" t="n">
-        <v>2000341</v>
+        <f aca="false">B644+1</f>
+        <v>2000644</v>
       </c>
       <c r="C645" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E645" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="E645" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G645" s="0" t="s">
         <v>12</v>
@@ -16036,19 +16186,20 @@
         <v>148</v>
       </c>
       <c r="B646" s="0" t="n">
-        <v>2000344</v>
+        <f aca="false">B645+1</f>
+        <v>2000645</v>
       </c>
       <c r="C646" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E646" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F646" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F646" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="G646" s="0" t="s">
         <v>12</v>
@@ -16059,19 +16210,20 @@
         <v>148</v>
       </c>
       <c r="B647" s="0" t="n">
-        <v>2000347</v>
+        <f aca="false">B646+1</f>
+        <v>2000646</v>
       </c>
       <c r="C647" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E647" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F647" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F647" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="G647" s="0" t="s">
         <v>12</v>
@@ -16082,16 +16234,17 @@
         <v>148</v>
       </c>
       <c r="B648" s="0" t="n">
-        <v>2000350</v>
+        <f aca="false">B647+1</f>
+        <v>2000647</v>
       </c>
       <c r="C648" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F648" s="0" t="s">
         <v>167</v>
@@ -16105,16 +16258,17 @@
         <v>148</v>
       </c>
       <c r="B649" s="0" t="n">
-        <v>2000353</v>
+        <f aca="false">B648+1</f>
+        <v>2000648</v>
       </c>
       <c r="C649" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F649" s="0" t="s">
         <v>167</v>
@@ -16128,16 +16282,17 @@
         <v>148</v>
       </c>
       <c r="B650" s="0" t="n">
-        <v>2000356</v>
+        <f aca="false">B649+1</f>
+        <v>2000649</v>
       </c>
       <c r="C650" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F650" s="0" t="s">
         <v>167</v>
@@ -16151,16 +16306,17 @@
         <v>148</v>
       </c>
       <c r="B651" s="0" t="n">
-        <v>2000359</v>
+        <f aca="false">B650+1</f>
+        <v>2000650</v>
       </c>
       <c r="C651" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F651" s="0" t="s">
         <v>167</v>
@@ -16174,16 +16330,17 @@
         <v>148</v>
       </c>
       <c r="B652" s="0" t="n">
-        <v>2000362</v>
+        <f aca="false">B651+1</f>
+        <v>2000651</v>
       </c>
       <c r="C652" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F652" s="0" t="s">
         <v>167</v>
@@ -16197,16 +16354,17 @@
         <v>148</v>
       </c>
       <c r="B653" s="0" t="n">
-        <v>2000365</v>
+        <f aca="false">B652+1</f>
+        <v>2000652</v>
       </c>
       <c r="C653" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F653" s="0" t="s">
         <v>167</v>
@@ -16220,16 +16378,17 @@
         <v>148</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>2000368</v>
+        <f aca="false">B653+1</f>
+        <v>2000653</v>
       </c>
       <c r="C654" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F654" s="0" t="s">
         <v>167</v>
@@ -16243,16 +16402,17 @@
         <v>148</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>2000371</v>
+        <f aca="false">B654+1</f>
+        <v>2000654</v>
       </c>
       <c r="C655" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F655" s="0" t="s">
         <v>167</v>
@@ -16266,16 +16426,17 @@
         <v>148</v>
       </c>
       <c r="B656" s="0" t="n">
-        <v>2000374</v>
+        <f aca="false">B655+1</f>
+        <v>2000655</v>
       </c>
       <c r="C656" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F656" s="0" t="s">
         <v>167</v>
@@ -16289,16 +16450,17 @@
         <v>148</v>
       </c>
       <c r="B657" s="0" t="n">
-        <v>2000377</v>
+        <f aca="false">B656+1</f>
+        <v>2000656</v>
       </c>
       <c r="C657" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F657" s="0" t="s">
         <v>167</v>
@@ -16312,16 +16474,17 @@
         <v>148</v>
       </c>
       <c r="B658" s="0" t="n">
-        <v>2000380</v>
+        <f aca="false">B657+1</f>
+        <v>2000657</v>
       </c>
       <c r="C658" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F658" s="0" t="s">
         <v>167</v>
@@ -16335,16 +16498,17 @@
         <v>148</v>
       </c>
       <c r="B659" s="0" t="n">
-        <v>2000383</v>
+        <f aca="false">B658+1</f>
+        <v>2000658</v>
       </c>
       <c r="C659" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F659" s="0" t="s">
         <v>167</v>
@@ -16353,21 +16517,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
         <v>148</v>
       </c>
       <c r="B660" s="0" t="n">
-        <v>2000386</v>
+        <f aca="false">B659+1</f>
+        <v>2000659</v>
       </c>
       <c r="C660" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E660" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
+      </c>
+      <c r="E660" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="F660" s="0" t="s">
         <v>167</v>
@@ -16376,21 +16541,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
         <v>148</v>
       </c>
       <c r="B661" s="0" t="n">
-        <v>2000389</v>
+        <f aca="false">B660+1</f>
+        <v>2000660</v>
       </c>
       <c r="C661" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E661" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
+      </c>
+      <c r="E661" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="F661" s="0" t="s">
         <v>167</v>
@@ -16401,22 +16567,23 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B662" s="0" t="n">
-        <v>2000392</v>
+        <f aca="false">B661+1</f>
+        <v>2000661</v>
       </c>
       <c r="C662" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F662" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G662" s="0" t="s">
         <v>12</v>
@@ -16424,22 +16591,23 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B663" s="0" t="n">
-        <v>2000395</v>
+        <f aca="false">B662+1</f>
+        <v>2000662</v>
       </c>
       <c r="C663" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F663" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G663" s="0" t="s">
         <v>12</v>
@@ -16451,16 +16619,16 @@
       </c>
       <c r="B664" s="0" t="n">
         <f aca="false">B663+1</f>
-        <v>2000396</v>
+        <v>2000663</v>
       </c>
       <c r="C664" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F664" s="0" t="s">
         <v>171</v>
@@ -16475,16 +16643,16 @@
       </c>
       <c r="B665" s="0" t="n">
         <f aca="false">B664+1</f>
-        <v>2000397</v>
+        <v>2000664</v>
       </c>
       <c r="C665" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F665" s="0" t="s">
         <v>171</v>
@@ -16493,48 +16661,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B666" s="0" t="n">
         <f aca="false">B665+1</f>
-        <v>2000398</v>
+        <v>2000665</v>
       </c>
       <c r="C666" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F666" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="G666" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>2000011</v>
+        <f aca="false">B666+1</f>
+        <v>2000666</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F667" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="G667" s="0" t="s">
         <v>12</v>
@@ -16545,16 +16714,17 @@
         <v>169</v>
       </c>
       <c r="B668" s="0" t="n">
-        <v>2000014</v>
+        <f aca="false">B667+1</f>
+        <v>2000667</v>
       </c>
       <c r="C668" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E668" s="0" t="s">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F668" s="1" t="s">
         <v>174</v>
@@ -16568,16 +16738,17 @@
         <v>169</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>2000017</v>
+        <f aca="false">B668+1</f>
+        <v>2000668</v>
       </c>
       <c r="C669" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E669" s="0" t="s">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F669" s="1" t="s">
         <v>174</v>
@@ -16591,16 +16762,17 @@
         <v>169</v>
       </c>
       <c r="B670" s="0" t="n">
-        <v>2000020</v>
+        <f aca="false">B669+1</f>
+        <v>2000669</v>
       </c>
       <c r="C670" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F670" s="1" t="s">
         <v>174</v>
@@ -16614,16 +16786,17 @@
         <v>169</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>2000023</v>
+        <f aca="false">B670+1</f>
+        <v>2000670</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F671" s="1" t="s">
         <v>174</v>
@@ -16637,16 +16810,17 @@
         <v>169</v>
       </c>
       <c r="B672" s="0" t="n">
-        <v>2000026</v>
+        <f aca="false">B671+1</f>
+        <v>2000671</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F672" s="1" t="s">
         <v>174</v>
@@ -16660,16 +16834,17 @@
         <v>169</v>
       </c>
       <c r="B673" s="0" t="n">
-        <v>2000029</v>
+        <f aca="false">B672+1</f>
+        <v>2000672</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F673" s="1" t="s">
         <v>174</v>
@@ -16683,16 +16858,17 @@
         <v>169</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>2000032</v>
+        <f aca="false">B673+1</f>
+        <v>2000673</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F674" s="1" t="s">
         <v>174</v>
@@ -16706,16 +16882,17 @@
         <v>169</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>2000035</v>
+        <f aca="false">B674+1</f>
+        <v>2000674</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F675" s="1" t="s">
         <v>174</v>
@@ -16729,16 +16906,17 @@
         <v>169</v>
       </c>
       <c r="B676" s="0" t="n">
-        <v>2000038</v>
+        <f aca="false">B675+1</f>
+        <v>2000675</v>
       </c>
       <c r="C676" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F676" s="1" t="s">
         <v>174</v>
@@ -16752,16 +16930,17 @@
         <v>169</v>
       </c>
       <c r="B677" s="0" t="n">
-        <v>2000041</v>
+        <f aca="false">B676+1</f>
+        <v>2000676</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F677" s="1" t="s">
         <v>174</v>
@@ -16775,16 +16954,17 @@
         <v>169</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>2000044</v>
+        <f aca="false">B677+1</f>
+        <v>2000677</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F678" s="1" t="s">
         <v>174</v>
@@ -16798,16 +16978,17 @@
         <v>169</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>2000047</v>
+        <f aca="false">B678+1</f>
+        <v>2000678</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D679" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F679" s="1" t="s">
         <v>174</v>
@@ -16821,16 +17002,17 @@
         <v>169</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>2000050</v>
+        <f aca="false">B679+1</f>
+        <v>2000679</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F680" s="1" t="s">
         <v>174</v>
@@ -16844,16 +17026,17 @@
         <v>169</v>
       </c>
       <c r="B681" s="0" t="n">
-        <v>2000053</v>
+        <f aca="false">B680+1</f>
+        <v>2000680</v>
       </c>
       <c r="C681" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F681" s="1" t="s">
         <v>174</v>
@@ -16867,19 +17050,20 @@
         <v>169</v>
       </c>
       <c r="B682" s="0" t="n">
-        <v>2000056</v>
+        <f aca="false">B681+1</f>
+        <v>2000681</v>
       </c>
       <c r="C682" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E682" s="1" t="s">
-        <v>175</v>
+        <v>40</v>
+      </c>
+      <c r="E682" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G682" s="0" t="s">
         <v>12</v>
@@ -16890,19 +17074,20 @@
         <v>169</v>
       </c>
       <c r="B683" s="0" t="n">
-        <v>2000059</v>
+        <f aca="false">B682+1</f>
+        <v>2000682</v>
       </c>
       <c r="C683" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E683" s="1" t="s">
-        <v>175</v>
+        <v>40</v>
+      </c>
+      <c r="E683" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G683" s="0" t="s">
         <v>12</v>
@@ -16913,19 +17098,20 @@
         <v>169</v>
       </c>
       <c r="B684" s="0" t="n">
-        <v>2000062</v>
+        <f aca="false">B683+1</f>
+        <v>2000683</v>
       </c>
       <c r="C684" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E684" s="0" t="s">
-        <v>176</v>
+        <v>44</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G684" s="0" t="s">
         <v>12</v>
@@ -16936,19 +17122,20 @@
         <v>169</v>
       </c>
       <c r="B685" s="0" t="n">
-        <v>2000065</v>
+        <f aca="false">B684+1</f>
+        <v>2000684</v>
       </c>
       <c r="C685" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D685" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E685" s="0" t="s">
-        <v>176</v>
+        <v>44</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G685" s="0" t="s">
         <v>12</v>
@@ -16959,16 +17146,17 @@
         <v>169</v>
       </c>
       <c r="B686" s="0" t="n">
-        <v>2000068</v>
+        <f aca="false">B685+1</f>
+        <v>2000685</v>
       </c>
       <c r="C686" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D686" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F686" s="1" t="s">
         <v>174</v>
@@ -16983,16 +17171,16 @@
       </c>
       <c r="B687" s="0" t="n">
         <f aca="false">B686+1</f>
-        <v>2000069</v>
+        <v>2000686</v>
       </c>
       <c r="C687" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F687" s="1" t="s">
         <v>174</v>
@@ -17007,19 +17195,19 @@
       </c>
       <c r="B688" s="0" t="n">
         <f aca="false">B687+1</f>
-        <v>2000070</v>
+        <v>2000687</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E688" s="1" t="s">
-        <v>173</v>
+        <v>46</v>
+      </c>
+      <c r="E688" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G688" s="0" t="s">
         <v>12</v>
@@ -17031,19 +17219,19 @@
       </c>
       <c r="B689" s="0" t="n">
         <f aca="false">B688+1</f>
-        <v>2000071</v>
+        <v>2000688</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D689" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E689" s="1" t="s">
-        <v>175</v>
+        <v>46</v>
+      </c>
+      <c r="E689" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G689" s="0" t="s">
         <v>12</v>
@@ -17055,16 +17243,16 @@
       </c>
       <c r="B690" s="0" t="n">
         <f aca="false">B689+1</f>
-        <v>2000072</v>
+        <v>2000689</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F690" s="1" t="s">
         <v>174</v>
@@ -17079,19 +17267,19 @@
       </c>
       <c r="B691" s="0" t="n">
         <f aca="false">B690+1</f>
-        <v>2000073</v>
+        <v>2000690</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D691" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E691" s="0" t="s">
-        <v>177</v>
+        <v>50</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G691" s="0" t="s">
         <v>12</v>
@@ -17103,19 +17291,19 @@
       </c>
       <c r="B692" s="0" t="n">
         <f aca="false">B691+1</f>
-        <v>2000074</v>
+        <v>2000691</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D692" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E692" s="0" t="s">
-        <v>177</v>
+        <v>51</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G692" s="0" t="s">
         <v>12</v>
@@ -17127,13 +17315,13 @@
       </c>
       <c r="B693" s="0" t="n">
         <f aca="false">B692+1</f>
-        <v>2000075</v>
+        <v>2000692</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D693" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E693" s="1" t="s">
         <v>173</v>
@@ -17151,16 +17339,16 @@
       </c>
       <c r="B694" s="0" t="n">
         <f aca="false">B693+1</f>
-        <v>2000076</v>
+        <v>2000693</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D694" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F694" s="1" t="s">
         <v>174</v>
@@ -17175,16 +17363,16 @@
       </c>
       <c r="B695" s="0" t="n">
         <f aca="false">B694+1</f>
-        <v>2000077</v>
+        <v>2000694</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D695" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F695" s="1" t="s">
         <v>174</v>
@@ -17199,16 +17387,16 @@
       </c>
       <c r="B696" s="0" t="n">
         <f aca="false">B695+1</f>
-        <v>2000078</v>
+        <v>2000695</v>
       </c>
       <c r="C696" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D696" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F696" s="1" t="s">
         <v>174</v>
@@ -17223,13 +17411,13 @@
       </c>
       <c r="B697" s="0" t="n">
         <f aca="false">B696+1</f>
-        <v>2000079</v>
+        <v>2000696</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D697" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>175</v>
@@ -17247,16 +17435,16 @@
       </c>
       <c r="B698" s="0" t="n">
         <f aca="false">B697+1</f>
-        <v>2000080</v>
+        <v>2000697</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F698" s="1" t="s">
         <v>174</v>
@@ -17271,16 +17459,16 @@
       </c>
       <c r="B699" s="0" t="n">
         <f aca="false">B698+1</f>
-        <v>2000081</v>
+        <v>2000698</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D699" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F699" s="1" t="s">
         <v>174</v>
@@ -17295,19 +17483,19 @@
       </c>
       <c r="B700" s="0" t="n">
         <f aca="false">B699+1</f>
-        <v>2000082</v>
+        <v>2000699</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D700" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E700" s="1" t="s">
-        <v>175</v>
+        <v>55</v>
+      </c>
+      <c r="E700" s="0" t="s">
+        <v>178</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G700" s="0" t="s">
         <v>12</v>
@@ -17319,13 +17507,13 @@
       </c>
       <c r="B701" s="0" t="n">
         <f aca="false">B700+1</f>
-        <v>2000083</v>
+        <v>2000700</v>
       </c>
       <c r="C701" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D701" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>173</v>
@@ -17343,13 +17531,13 @@
       </c>
       <c r="B702" s="0" t="n">
         <f aca="false">B701+1</f>
-        <v>2000084</v>
+        <v>2000701</v>
       </c>
       <c r="C702" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D702" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E702" s="1" t="s">
         <v>173</v>
@@ -17367,19 +17555,19 @@
       </c>
       <c r="B703" s="0" t="n">
         <f aca="false">B702+1</f>
-        <v>2000085</v>
+        <v>2000702</v>
       </c>
       <c r="C703" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D703" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E703" s="0" t="s">
-        <v>178</v>
+        <v>60</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G703" s="0" t="s">
         <v>12</v>
@@ -17391,16 +17579,16 @@
       </c>
       <c r="B704" s="0" t="n">
         <f aca="false">B703+1</f>
-        <v>2000086</v>
+        <v>2000703</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D704" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F704" s="1" t="s">
         <v>174</v>
@@ -17415,13 +17603,13 @@
       </c>
       <c r="B705" s="0" t="n">
         <f aca="false">B704+1</f>
-        <v>2000087</v>
+        <v>2000704</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D705" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E705" s="1" t="s">
         <v>173</v>
@@ -17439,16 +17627,16 @@
       </c>
       <c r="B706" s="0" t="n">
         <f aca="false">B705+1</f>
-        <v>2000088</v>
+        <v>2000705</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D706" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F706" s="1" t="s">
         <v>174</v>
@@ -17463,13 +17651,13 @@
       </c>
       <c r="B707" s="0" t="n">
         <f aca="false">B706+1</f>
-        <v>2000089</v>
+        <v>2000706</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D707" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E707" s="1" t="s">
         <v>175</v>
@@ -17487,16 +17675,16 @@
       </c>
       <c r="B708" s="0" t="n">
         <f aca="false">B707+1</f>
-        <v>2000090</v>
+        <v>2000707</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D708" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F708" s="1" t="s">
         <v>174</v>
@@ -17511,13 +17699,13 @@
       </c>
       <c r="B709" s="0" t="n">
         <f aca="false">B708+1</f>
-        <v>2000091</v>
+        <v>2000708</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D709" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E709" s="1" t="s">
         <v>173</v>
@@ -17535,16 +17723,16 @@
       </c>
       <c r="B710" s="0" t="n">
         <f aca="false">B709+1</f>
-        <v>2000092</v>
+        <v>2000709</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D710" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F710" s="1" t="s">
         <v>174</v>
@@ -17559,13 +17747,13 @@
       </c>
       <c r="B711" s="0" t="n">
         <f aca="false">B710+1</f>
-        <v>2000093</v>
+        <v>2000710</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D711" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E711" s="1" t="s">
         <v>175</v>
@@ -17583,16 +17771,16 @@
       </c>
       <c r="B712" s="0" t="n">
         <f aca="false">B711+1</f>
-        <v>2000094</v>
+        <v>2000711</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D712" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F712" s="1" t="s">
         <v>174</v>
@@ -17607,13 +17795,13 @@
       </c>
       <c r="B713" s="0" t="n">
         <f aca="false">B712+1</f>
-        <v>2000095</v>
+        <v>2000712</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D713" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E713" s="1" t="s">
         <v>173</v>
@@ -17631,16 +17819,16 @@
       </c>
       <c r="B714" s="0" t="n">
         <f aca="false">B713+1</f>
-        <v>2000096</v>
+        <v>2000713</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D714" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F714" s="1" t="s">
         <v>174</v>
@@ -17655,13 +17843,13 @@
       </c>
       <c r="B715" s="0" t="n">
         <f aca="false">B714+1</f>
-        <v>2000097</v>
+        <v>2000714</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D715" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>175</v>
@@ -17679,16 +17867,16 @@
       </c>
       <c r="B716" s="0" t="n">
         <f aca="false">B715+1</f>
-        <v>2000098</v>
+        <v>2000715</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D716" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F716" s="1" t="s">
         <v>174</v>
@@ -17703,13 +17891,13 @@
       </c>
       <c r="B717" s="0" t="n">
         <f aca="false">B716+1</f>
-        <v>2000099</v>
+        <v>2000716</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D717" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E717" s="1" t="s">
         <v>173</v>
@@ -17727,16 +17915,16 @@
       </c>
       <c r="B718" s="0" t="n">
         <f aca="false">B717+1</f>
-        <v>2000100</v>
+        <v>2000717</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D718" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F718" s="1" t="s">
         <v>174</v>
@@ -17751,13 +17939,13 @@
       </c>
       <c r="B719" s="0" t="n">
         <f aca="false">B718+1</f>
-        <v>2000101</v>
+        <v>2000718</v>
       </c>
       <c r="C719" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D719" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E719" s="1" t="s">
         <v>175</v>
@@ -17775,16 +17963,16 @@
       </c>
       <c r="B720" s="0" t="n">
         <f aca="false">B719+1</f>
-        <v>2000102</v>
+        <v>2000719</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D720" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F720" s="1" t="s">
         <v>174</v>
@@ -17799,19 +17987,19 @@
       </c>
       <c r="B721" s="0" t="n">
         <f aca="false">B720+1</f>
-        <v>2000103</v>
+        <v>2000720</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D721" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E721" s="1" t="s">
-        <v>173</v>
+        <v>69</v>
+      </c>
+      <c r="E721" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="F721" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G721" s="0" t="s">
         <v>12</v>
@@ -17823,19 +18011,19 @@
       </c>
       <c r="B722" s="0" t="n">
         <f aca="false">B721+1</f>
-        <v>2000104</v>
+        <v>2000721</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D722" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E722" s="1" t="s">
-        <v>175</v>
+        <v>69</v>
+      </c>
+      <c r="E722" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G722" s="0" t="s">
         <v>12</v>
@@ -17847,16 +18035,16 @@
       </c>
       <c r="B723" s="0" t="n">
         <f aca="false">B722+1</f>
-        <v>2000105</v>
+        <v>2000722</v>
       </c>
       <c r="C723" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D723" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F723" s="1" t="s">
         <v>174</v>
@@ -17871,19 +18059,19 @@
       </c>
       <c r="B724" s="0" t="n">
         <f aca="false">B723+1</f>
-        <v>2000106</v>
+        <v>2000723</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D724" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E724" s="0" t="s">
-        <v>179</v>
+        <v>73</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G724" s="0" t="s">
         <v>12</v>
@@ -17895,19 +18083,19 @@
       </c>
       <c r="B725" s="0" t="n">
         <f aca="false">B724+1</f>
-        <v>2000107</v>
+        <v>2000724</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D725" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E725" s="0" t="s">
-        <v>179</v>
+        <v>74</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G725" s="0" t="s">
         <v>12</v>
@@ -17919,16 +18107,16 @@
       </c>
       <c r="B726" s="0" t="n">
         <f aca="false">B725+1</f>
-        <v>2000108</v>
+        <v>2000725</v>
       </c>
       <c r="C726" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D726" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F726" s="1" t="s">
         <v>174</v>
@@ -17943,13 +18131,13 @@
       </c>
       <c r="B727" s="0" t="n">
         <f aca="false">B726+1</f>
-        <v>2000109</v>
+        <v>2000726</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D727" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E727" s="1" t="s">
         <v>173</v>
@@ -17967,16 +18155,16 @@
       </c>
       <c r="B728" s="0" t="n">
         <f aca="false">B727+1</f>
-        <v>2000110</v>
+        <v>2000727</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D728" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F728" s="1" t="s">
         <v>174</v>
@@ -17991,13 +18179,13 @@
       </c>
       <c r="B729" s="0" t="n">
         <f aca="false">B728+1</f>
-        <v>2000111</v>
+        <v>2000728</v>
       </c>
       <c r="C729" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D729" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E729" s="1" t="s">
         <v>175</v>
@@ -18015,16 +18203,16 @@
       </c>
       <c r="B730" s="0" t="n">
         <f aca="false">B729+1</f>
-        <v>2000112</v>
+        <v>2000729</v>
       </c>
       <c r="C730" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D730" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F730" s="1" t="s">
         <v>174</v>
@@ -18039,19 +18227,19 @@
       </c>
       <c r="B731" s="0" t="n">
         <f aca="false">B730+1</f>
-        <v>2000113</v>
+        <v>2000730</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D731" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E731" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
+      </c>
+      <c r="E731" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G731" s="0" t="s">
         <v>12</v>
@@ -18063,19 +18251,19 @@
       </c>
       <c r="B732" s="0" t="n">
         <f aca="false">B731+1</f>
-        <v>2000114</v>
+        <v>2000731</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D732" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E732" s="1" t="s">
-        <v>175</v>
+        <v>77</v>
+      </c>
+      <c r="E732" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G732" s="0" t="s">
         <v>12</v>
@@ -18086,16 +18274,17 @@
         <v>169</v>
       </c>
       <c r="B733" s="0" t="n">
-        <v>2000206</v>
+        <f aca="false">B732+1</f>
+        <v>2000732</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D733" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F733" s="1" t="s">
         <v>174</v>
@@ -18109,19 +18298,20 @@
         <v>169</v>
       </c>
       <c r="B734" s="0" t="n">
-        <v>2000209</v>
+        <f aca="false">B733+1</f>
+        <v>2000733</v>
       </c>
       <c r="C734" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D734" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E734" s="0" t="s">
-        <v>180</v>
+        <v>80</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G734" s="0" t="s">
         <v>12</v>
@@ -18132,19 +18322,20 @@
         <v>169</v>
       </c>
       <c r="B735" s="0" t="n">
-        <v>2000212</v>
+        <f aca="false">B734+1</f>
+        <v>2000734</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D735" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E735" s="0" t="s">
-        <v>180</v>
+        <v>81</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G735" s="0" t="s">
         <v>12</v>
@@ -18155,16 +18346,17 @@
         <v>169</v>
       </c>
       <c r="B736" s="0" t="n">
-        <v>2000215</v>
+        <f aca="false">B735+1</f>
+        <v>2000735</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D736" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F736" s="1" t="s">
         <v>174</v>
@@ -18178,13 +18370,14 @@
         <v>169</v>
       </c>
       <c r="B737" s="0" t="n">
-        <v>2000218</v>
+        <f aca="false">B736+1</f>
+        <v>2000736</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D737" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E737" s="1" t="s">
         <v>173</v>
@@ -18201,16 +18394,17 @@
         <v>169</v>
       </c>
       <c r="B738" s="0" t="n">
-        <v>2000221</v>
+        <f aca="false">B737+1</f>
+        <v>2000737</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D738" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F738" s="1" t="s">
         <v>174</v>
@@ -18224,13 +18418,14 @@
         <v>169</v>
       </c>
       <c r="B739" s="0" t="n">
-        <v>2000224</v>
+        <f aca="false">B738+1</f>
+        <v>2000738</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E739" s="1" t="s">
         <v>175</v>
@@ -18247,16 +18442,17 @@
         <v>169</v>
       </c>
       <c r="B740" s="0" t="n">
-        <v>2000227</v>
+        <f aca="false">B739+1</f>
+        <v>2000739</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D740" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F740" s="1" t="s">
         <v>174</v>
@@ -18270,13 +18466,14 @@
         <v>169</v>
       </c>
       <c r="B741" s="0" t="n">
-        <v>2000230</v>
+        <f aca="false">B740+1</f>
+        <v>2000740</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E741" s="1" t="s">
         <v>173</v>
@@ -18293,16 +18490,17 @@
         <v>169</v>
       </c>
       <c r="B742" s="0" t="n">
-        <v>2000233</v>
+        <f aca="false">B741+1</f>
+        <v>2000741</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D742" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F742" s="1" t="s">
         <v>174</v>
@@ -18316,13 +18514,14 @@
         <v>169</v>
       </c>
       <c r="B743" s="0" t="n">
-        <v>2000236</v>
+        <f aca="false">B742+1</f>
+        <v>2000742</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E743" s="1" t="s">
         <v>175</v>
@@ -18339,16 +18538,17 @@
         <v>169</v>
       </c>
       <c r="B744" s="0" t="n">
-        <v>2000239</v>
+        <f aca="false">B743+1</f>
+        <v>2000743</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D744" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F744" s="1" t="s">
         <v>174</v>
@@ -18362,19 +18562,20 @@
         <v>169</v>
       </c>
       <c r="B745" s="0" t="n">
-        <v>2000242</v>
+        <f aca="false">B744+1</f>
+        <v>2000744</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E745" s="1" t="s">
-        <v>173</v>
+        <v>86</v>
+      </c>
+      <c r="E745" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G745" s="0" t="s">
         <v>12</v>
@@ -18385,19 +18586,20 @@
         <v>169</v>
       </c>
       <c r="B746" s="0" t="n">
-        <v>2000245</v>
+        <f aca="false">B745+1</f>
+        <v>2000745</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D746" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E746" s="1" t="s">
-        <v>175</v>
+        <v>86</v>
+      </c>
+      <c r="E746" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G746" s="0" t="s">
         <v>12</v>
@@ -18408,16 +18610,17 @@
         <v>169</v>
       </c>
       <c r="B747" s="0" t="n">
-        <v>2000248</v>
+        <f aca="false">B746+1</f>
+        <v>2000746</v>
       </c>
       <c r="C747" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D747" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F747" s="1" t="s">
         <v>174</v>
@@ -18431,19 +18634,20 @@
         <v>169</v>
       </c>
       <c r="B748" s="0" t="n">
-        <v>2000251</v>
+        <f aca="false">B747+1</f>
+        <v>2000747</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D748" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E748" s="0" t="s">
-        <v>181</v>
+        <v>90</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G748" s="0" t="s">
         <v>12</v>
@@ -18454,19 +18658,20 @@
         <v>169</v>
       </c>
       <c r="B749" s="0" t="n">
-        <v>2000254</v>
+        <f aca="false">B748+1</f>
+        <v>2000748</v>
       </c>
       <c r="C749" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D749" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E749" s="0" t="s">
-        <v>181</v>
+        <v>91</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G749" s="0" t="s">
         <v>12</v>
@@ -18477,16 +18682,17 @@
         <v>169</v>
       </c>
       <c r="B750" s="0" t="n">
-        <v>2000257</v>
+        <f aca="false">B749+1</f>
+        <v>2000749</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D750" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F750" s="1" t="s">
         <v>174</v>
@@ -18500,13 +18706,14 @@
         <v>169</v>
       </c>
       <c r="B751" s="0" t="n">
-        <v>2000260</v>
+        <f aca="false">B750+1</f>
+        <v>2000750</v>
       </c>
       <c r="C751" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D751" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>173</v>
@@ -18523,16 +18730,17 @@
         <v>169</v>
       </c>
       <c r="B752" s="0" t="n">
-        <v>2000263</v>
+        <f aca="false">B751+1</f>
+        <v>2000751</v>
       </c>
       <c r="C752" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D752" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F752" s="1" t="s">
         <v>174</v>
@@ -18546,13 +18754,14 @@
         <v>169</v>
       </c>
       <c r="B753" s="0" t="n">
-        <v>2000266</v>
+        <f aca="false">B752+1</f>
+        <v>2000752</v>
       </c>
       <c r="C753" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D753" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E753" s="1" t="s">
         <v>175</v>
@@ -18569,16 +18778,17 @@
         <v>169</v>
       </c>
       <c r="B754" s="0" t="n">
-        <v>2000269</v>
+        <f aca="false">B753+1</f>
+        <v>2000753</v>
       </c>
       <c r="C754" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D754" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F754" s="1" t="s">
         <v>174</v>
@@ -18592,19 +18802,20 @@
         <v>169</v>
       </c>
       <c r="B755" s="0" t="n">
-        <v>2000272</v>
+        <f aca="false">B754+1</f>
+        <v>2000754</v>
       </c>
       <c r="C755" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D755" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E755" s="1" t="s">
-        <v>173</v>
+        <v>94</v>
+      </c>
+      <c r="E755" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="F755" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G755" s="0" t="s">
         <v>12</v>
@@ -18615,19 +18826,20 @@
         <v>169</v>
       </c>
       <c r="B756" s="0" t="n">
-        <v>2000275</v>
+        <f aca="false">B755+1</f>
+        <v>2000755</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D756" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E756" s="1" t="s">
-        <v>175</v>
+        <v>94</v>
+      </c>
+      <c r="E756" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="F756" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G756" s="0" t="s">
         <v>12</v>
@@ -18638,19 +18850,20 @@
         <v>169</v>
       </c>
       <c r="B757" s="0" t="n">
-        <v>2000278</v>
+        <f aca="false">B756+1</f>
+        <v>2000756</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D757" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E757" s="1" t="s">
-        <v>175</v>
+        <v>98</v>
+      </c>
+      <c r="E757" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="F757" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G757" s="0" t="s">
         <v>12</v>
@@ -18661,16 +18874,17 @@
         <v>169</v>
       </c>
       <c r="B758" s="0" t="n">
-        <v>2000281</v>
+        <f aca="false">B757+1</f>
+        <v>2000757</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D758" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E758" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F758" s="1" t="s">
         <v>171</v>
@@ -18684,19 +18898,20 @@
         <v>169</v>
       </c>
       <c r="B759" s="0" t="n">
-        <v>2000284</v>
+        <f aca="false">B758+1</f>
+        <v>2000758</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D759" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E759" s="0" t="s">
-        <v>182</v>
+        <v>102</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F759" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G759" s="0" t="s">
         <v>12</v>
@@ -18707,19 +18922,20 @@
         <v>169</v>
       </c>
       <c r="B760" s="0" t="n">
-        <v>2000287</v>
+        <f aca="false">B759+1</f>
+        <v>2000759</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D760" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E760" s="0" t="s">
-        <v>183</v>
+        <v>102</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F760" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G760" s="0" t="s">
         <v>12</v>
@@ -18730,19 +18946,20 @@
         <v>169</v>
       </c>
       <c r="B761" s="0" t="n">
-        <v>2000290</v>
+        <f aca="false">B760+1</f>
+        <v>2000760</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D761" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E761" s="0" t="s">
-        <v>183</v>
+        <v>103</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F761" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G761" s="0" t="s">
         <v>12</v>
@@ -18753,16 +18970,17 @@
         <v>169</v>
       </c>
       <c r="B762" s="0" t="n">
-        <v>2000293</v>
+        <f aca="false">B761+1</f>
+        <v>2000761</v>
       </c>
       <c r="C762" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D762" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F762" s="1" t="s">
         <v>174</v>
@@ -18776,19 +18994,20 @@
         <v>169</v>
       </c>
       <c r="B763" s="0" t="n">
-        <v>2000296</v>
+        <f aca="false">B762+1</f>
+        <v>2000762</v>
       </c>
       <c r="C763" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D763" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E763" s="1" t="s">
-        <v>173</v>
+        <v>104</v>
+      </c>
+      <c r="E763" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="F763" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G763" s="0" t="s">
         <v>12</v>
@@ -18799,19 +19018,20 @@
         <v>169</v>
       </c>
       <c r="B764" s="0" t="n">
-        <v>2000299</v>
+        <f aca="false">B763+1</f>
+        <v>2000763</v>
       </c>
       <c r="C764" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D764" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E764" s="1" t="s">
-        <v>175</v>
+        <v>104</v>
+      </c>
+      <c r="E764" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G764" s="0" t="s">
         <v>12</v>
@@ -18822,19 +19042,20 @@
         <v>169</v>
       </c>
       <c r="B765" s="0" t="n">
-        <v>2000302</v>
+        <f aca="false">B764+1</f>
+        <v>2000764</v>
       </c>
       <c r="C765" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D765" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E765" s="1" t="s">
-        <v>175</v>
+        <v>108</v>
+      </c>
+      <c r="E765" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G765" s="0" t="s">
         <v>12</v>
@@ -18845,19 +19066,20 @@
         <v>169</v>
       </c>
       <c r="B766" s="0" t="n">
-        <v>2000305</v>
+        <f aca="false">B765+1</f>
+        <v>2000765</v>
       </c>
       <c r="C766" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D766" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E766" s="0" t="s">
-        <v>184</v>
+        <v>112</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G766" s="0" t="s">
         <v>12</v>
@@ -18868,19 +19090,20 @@
         <v>169</v>
       </c>
       <c r="B767" s="0" t="n">
-        <v>2000308</v>
+        <f aca="false">B766+1</f>
+        <v>2000766</v>
       </c>
       <c r="C767" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D767" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E767" s="0" t="s">
-        <v>184</v>
+        <v>112</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G767" s="0" t="s">
         <v>12</v>
@@ -18891,19 +19114,20 @@
         <v>169</v>
       </c>
       <c r="B768" s="0" t="n">
-        <v>2000311</v>
+        <f aca="false">B767+1</f>
+        <v>2000767</v>
       </c>
       <c r="C768" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D768" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E768" s="0" t="s">
-        <v>185</v>
+        <v>113</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F768" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G768" s="0" t="s">
         <v>12</v>
@@ -18914,16 +19138,17 @@
         <v>169</v>
       </c>
       <c r="B769" s="0" t="n">
-        <v>2000314</v>
+        <f aca="false">B768+1</f>
+        <v>2000768</v>
       </c>
       <c r="C769" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D769" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F769" s="1" t="s">
         <v>174</v>
@@ -18937,13 +19162,14 @@
         <v>169</v>
       </c>
       <c r="B770" s="0" t="n">
-        <v>2000317</v>
+        <f aca="false">B769+1</f>
+        <v>2000769</v>
       </c>
       <c r="C770" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D770" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E770" s="1" t="s">
         <v>173</v>
@@ -18960,16 +19186,17 @@
         <v>169</v>
       </c>
       <c r="B771" s="0" t="n">
-        <v>2000320</v>
+        <f aca="false">B770+1</f>
+        <v>2000770</v>
       </c>
       <c r="C771" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D771" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F771" s="1" t="s">
         <v>174</v>
@@ -18983,16 +19210,17 @@
         <v>169</v>
       </c>
       <c r="B772" s="0" t="n">
-        <v>2000323</v>
+        <f aca="false">B771+1</f>
+        <v>2000771</v>
       </c>
       <c r="C772" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D772" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F772" s="1" t="s">
         <v>174</v>
@@ -19006,13 +19234,14 @@
         <v>169</v>
       </c>
       <c r="B773" s="0" t="n">
-        <v>2000326</v>
+        <f aca="false">B772+1</f>
+        <v>2000772</v>
       </c>
       <c r="C773" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D773" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E773" s="1" t="s">
         <v>173</v>
@@ -19029,16 +19258,17 @@
         <v>169</v>
       </c>
       <c r="B774" s="0" t="n">
-        <v>2000329</v>
+        <f aca="false">B773+1</f>
+        <v>2000773</v>
       </c>
       <c r="C774" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D774" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F774" s="1" t="s">
         <v>174</v>
@@ -19052,16 +19282,17 @@
         <v>169</v>
       </c>
       <c r="B775" s="0" t="n">
-        <v>2000332</v>
+        <f aca="false">B774+1</f>
+        <v>2000774</v>
       </c>
       <c r="C775" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D775" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F775" s="1" t="s">
         <v>174</v>
@@ -19075,19 +19306,20 @@
         <v>169</v>
       </c>
       <c r="B776" s="0" t="n">
-        <v>2000335</v>
+        <f aca="false">B775+1</f>
+        <v>2000775</v>
       </c>
       <c r="C776" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D776" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E776" s="1" t="s">
-        <v>173</v>
+        <v>117</v>
+      </c>
+      <c r="E776" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G776" s="0" t="s">
         <v>12</v>
@@ -19098,19 +19330,20 @@
         <v>169</v>
       </c>
       <c r="B777" s="0" t="n">
-        <v>2000338</v>
+        <f aca="false">B776+1</f>
+        <v>2000776</v>
       </c>
       <c r="C777" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D777" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E777" s="1" t="s">
-        <v>175</v>
+        <v>117</v>
+      </c>
+      <c r="E777" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="F777" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G777" s="0" t="s">
         <v>12</v>
@@ -19121,18 +19354,19 @@
         <v>169</v>
       </c>
       <c r="B778" s="0" t="n">
-        <v>2000341</v>
+        <f aca="false">B777+1</f>
+        <v>2000777</v>
       </c>
       <c r="C778" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D778" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F778" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F778" s="0" t="s">
         <v>174</v>
       </c>
       <c r="G778" s="0" t="s">
@@ -19144,19 +19378,20 @@
         <v>169</v>
       </c>
       <c r="B779" s="0" t="n">
-        <v>2000344</v>
+        <f aca="false">B778+1</f>
+        <v>2000778</v>
       </c>
       <c r="C779" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D779" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E779" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="F779" s="1" t="s">
-        <v>171</v>
+        <v>121</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F779" s="0" t="s">
+        <v>174</v>
       </c>
       <c r="G779" s="0" t="s">
         <v>12</v>
@@ -19167,19 +19402,20 @@
         <v>169</v>
       </c>
       <c r="B780" s="0" t="n">
-        <v>2000347</v>
+        <f aca="false">B779+1</f>
+        <v>2000779</v>
       </c>
       <c r="C780" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D780" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E780" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="F780" s="1" t="s">
-        <v>171</v>
+        <v>122</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F780" s="0" t="s">
+        <v>174</v>
       </c>
       <c r="G780" s="0" t="s">
         <v>12</v>
@@ -19190,16 +19426,17 @@
         <v>169</v>
       </c>
       <c r="B781" s="0" t="n">
-        <v>2000350</v>
+        <f aca="false">B780+1</f>
+        <v>2000780</v>
       </c>
       <c r="C781" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D781" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F781" s="0" t="s">
         <v>174</v>
@@ -19213,13 +19450,14 @@
         <v>169</v>
       </c>
       <c r="B782" s="0" t="n">
-        <v>2000353</v>
+        <f aca="false">B781+1</f>
+        <v>2000781</v>
       </c>
       <c r="C782" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D782" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E782" s="1" t="s">
         <v>173</v>
@@ -19236,16 +19474,17 @@
         <v>169</v>
       </c>
       <c r="B783" s="0" t="n">
-        <v>2000356</v>
+        <f aca="false">B782+1</f>
+        <v>2000782</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D783" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F783" s="0" t="s">
         <v>174</v>
@@ -19259,13 +19498,14 @@
         <v>169</v>
       </c>
       <c r="B784" s="0" t="n">
-        <v>2000359</v>
+        <f aca="false">B783+1</f>
+        <v>2000783</v>
       </c>
       <c r="C784" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D784" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>175</v>
@@ -19282,16 +19522,17 @@
         <v>169</v>
       </c>
       <c r="B785" s="0" t="n">
-        <v>2000362</v>
+        <f aca="false">B784+1</f>
+        <v>2000784</v>
       </c>
       <c r="C785" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D785" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F785" s="0" t="s">
         <v>174</v>
@@ -19305,13 +19546,14 @@
         <v>169</v>
       </c>
       <c r="B786" s="0" t="n">
-        <v>2000365</v>
+        <f aca="false">B785+1</f>
+        <v>2000785</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D786" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E786" s="1" t="s">
         <v>173</v>
@@ -19328,16 +19570,17 @@
         <v>169</v>
       </c>
       <c r="B787" s="0" t="n">
-        <v>2000368</v>
+        <f aca="false">B786+1</f>
+        <v>2000786</v>
       </c>
       <c r="C787" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D787" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F787" s="0" t="s">
         <v>174</v>
@@ -19351,13 +19594,14 @@
         <v>169</v>
       </c>
       <c r="B788" s="0" t="n">
-        <v>2000371</v>
+        <f aca="false">B787+1</f>
+        <v>2000787</v>
       </c>
       <c r="C788" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D788" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E788" s="1" t="s">
         <v>175</v>
@@ -19374,16 +19618,17 @@
         <v>169</v>
       </c>
       <c r="B789" s="0" t="n">
-        <v>2000374</v>
+        <f aca="false">B788+1</f>
+        <v>2000788</v>
       </c>
       <c r="C789" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D789" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F789" s="0" t="s">
         <v>174</v>
@@ -19397,13 +19642,14 @@
         <v>169</v>
       </c>
       <c r="B790" s="0" t="n">
-        <v>2000377</v>
+        <f aca="false">B789+1</f>
+        <v>2000789</v>
       </c>
       <c r="C790" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D790" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E790" s="1" t="s">
         <v>173</v>
@@ -19420,16 +19666,17 @@
         <v>169</v>
       </c>
       <c r="B791" s="0" t="n">
-        <v>2000380</v>
+        <f aca="false">B790+1</f>
+        <v>2000790</v>
       </c>
       <c r="C791" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D791" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F791" s="0" t="s">
         <v>174</v>
@@ -19443,16 +19690,17 @@
         <v>169</v>
       </c>
       <c r="B792" s="0" t="n">
-        <v>2000383</v>
+        <f aca="false">B791+1</f>
+        <v>2000791</v>
       </c>
       <c r="C792" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D792" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E792" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
+      </c>
+      <c r="E792" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="F792" s="0" t="s">
         <v>174</v>
@@ -19466,16 +19714,17 @@
         <v>169</v>
       </c>
       <c r="B793" s="0" t="n">
-        <v>2000386</v>
+        <f aca="false">B792+1</f>
+        <v>2000792</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D793" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E793" s="1" t="s">
-        <v>173</v>
+        <v>128</v>
+      </c>
+      <c r="E793" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="F793" s="0" t="s">
         <v>174</v>
@@ -19484,75 +19733,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B794" s="0" t="n">
-        <v>2000389</v>
-      </c>
-      <c r="C794" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D794" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E794" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F794" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G794" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="795" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B795" s="0" t="n">
-        <v>2000392</v>
-      </c>
-      <c r="C795" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D795" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E795" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F795" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G795" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="796" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B796" s="0" t="n">
-        <v>2000395</v>
-      </c>
-      <c r="C796" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D796" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E796" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F796" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G796" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8EE9D8-5EBC-4B1B-A1DC-D3C7BEDEE628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D585E0-F50F-49B8-8D03-3888B259EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$J$397</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -93,6 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,12 +585,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -912,7 +916,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,7 +924,7 @@
     <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" customWidth="1"/>
     <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="39.7265625" customWidth="1"/>
     <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
@@ -935,7 +939,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -958,8 +962,8 @@
       <c r="C2">
         <v>1001</v>
       </c>
-      <c r="D2">
-        <v>44197</v>
+      <c r="D2" s="3">
+        <v>43466</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -984,8 +988,8 @@
       <c r="C3">
         <v>1001</v>
       </c>
-      <c r="D3">
-        <v>44222</v>
+      <c r="D3" s="3">
+        <v>43586</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1009,8 +1013,8 @@
       <c r="C4">
         <v>1001</v>
       </c>
-      <c r="D4">
-        <v>44317</v>
+      <c r="D4" s="3">
+        <v>43586</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1034,7 +1038,7 @@
       <c r="C5">
         <v>1001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>44423</v>
       </c>
       <c r="E5" t="s">
@@ -1059,7 +1063,7 @@
       <c r="C6">
         <v>1001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>44471</v>
       </c>
       <c r="E6" t="s">
@@ -1084,7 +1088,7 @@
       <c r="C7">
         <v>1001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>44444</v>
       </c>
       <c r="E7" t="s">
@@ -1109,7 +1113,7 @@
       <c r="C8">
         <v>1001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>44502</v>
       </c>
       <c r="E8" t="s">
@@ -1134,7 +1138,7 @@
       <c r="C9">
         <v>1001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>44555</v>
       </c>
       <c r="E9" t="s">

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D585E0-F50F-49B8-8D03-3888B259EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61993F7E-8AA9-434F-90D4-470E602178F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,11 +584,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,238 +913,239 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.7265625" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1001</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>43466</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>43586</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2000003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>43586</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2000004</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>44423</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2000005</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>44471</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2000006</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>44444</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2000007</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>44502</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2000008</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>44555</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="2"/>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61993F7E-8AA9-434F-90D4-470E602178F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618C305-5BD6-48EA-B599-FB217515F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,6 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,13 +585,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,7 +925,7 @@
     <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="39.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.81640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.453125" style="1"/>
@@ -937,7 +941,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -960,7 +964,7 @@
       <c r="C2" s="1">
         <v>1001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>43466</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -986,7 +990,7 @@
       <c r="C3" s="1">
         <v>1001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>43586</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1011,7 +1015,7 @@
       <c r="C4" s="1">
         <v>1001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>43586</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1036,7 +1040,7 @@
       <c r="C5" s="1">
         <v>1001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>44423</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1061,7 +1065,7 @@
       <c r="C6" s="1">
         <v>1001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>44471</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1086,7 +1090,7 @@
       <c r="C7" s="1">
         <v>1001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>44444</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1111,7 +1115,7 @@
       <c r="C8" s="1">
         <v>1001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>44502</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1136,7 +1140,7 @@
       <c r="C9" s="1">
         <v>1001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>44555</v>
       </c>
       <c r="E9" s="1" t="s">

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618C305-5BD6-48EA-B599-FB217515F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A32CA9-4B0B-4A11-B96C-165462E6B6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,7 +589,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,7 +914,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
